--- a/FINAL_DATA.xlsx
+++ b/FINAL_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/najahizquierdo/Desktop/cs577 project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB5CC2C-88B3-394D-B898-099A77ECDBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C45B4D-DEB1-3041-A776-3E427D941E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="1620" windowWidth="26480" windowHeight="14440" xr2:uid="{2CFF784D-EA4A-664E-8C1A-58F2EC61164E}"/>
+    <workbookView xWindow="8420" yWindow="1980" windowWidth="19740" windowHeight="14440" xr2:uid="{2CFF784D-EA4A-664E-8C1A-58F2EC61164E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$269</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -237,439 +236,439 @@
     <t>political_party_majority</t>
   </si>
   <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>median_household_income</t>
+  </si>
+  <si>
+    <t>average_household_size</t>
+  </si>
+  <si>
+    <t>white_population</t>
+  </si>
+  <si>
+    <t>black_population</t>
+  </si>
+  <si>
+    <t>latino_population</t>
+  </si>
+  <si>
+    <t>asian_population</t>
+  </si>
+  <si>
+    <t>job_growth_rate</t>
+  </si>
+  <si>
+    <t>neighborhood</t>
+  </si>
+  <si>
+    <t>Florence-Graham</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Los Angeles </t>
+  </si>
+  <si>
+    <t>South Los Angeles</t>
+  </si>
+  <si>
+    <t>Hancock Park</t>
+  </si>
+  <si>
+    <t>Rampart Village</t>
+  </si>
+  <si>
+    <t>Byzantine-Latino Quarter, Harvard Heights, Koreatown, Pico Heights</t>
+  </si>
+  <si>
+    <t>Baldwin Hills, Crenshaw, Leimert Park</t>
+  </si>
+  <si>
+    <t>Hancock Park, Wilshire Center, Windsor Square</t>
+  </si>
+  <si>
+    <t>Southeast Los Angeles</t>
+  </si>
+  <si>
+    <t>Downtown Civic Center, Chinatown, Arts District, Bunker Hill, Historic Core, Little Tokyo</t>
+  </si>
+  <si>
+    <t>Downtown Historic Core, Arts District</t>
+  </si>
+  <si>
+    <t>Dowtown Fashion District, South Park-South</t>
+  </si>
+  <si>
+    <t>West Adams</t>
+  </si>
+  <si>
+    <t>Arlington Heights, Country Club Park, Mid-City</t>
+  </si>
+  <si>
+    <t>Hancock Park, Western Wilton, Wilshire Center, Windsor Square</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>Westwood</t>
+  </si>
+  <si>
+    <t>Sawtelle, West Los Angeles</t>
+  </si>
+  <si>
+    <t>Echo Park</t>
+  </si>
+  <si>
+    <t>Griffith Park, Hollywood, Los Feliz</t>
+  </si>
+  <si>
+    <t>Hollywood</t>
+  </si>
+  <si>
+    <t>East Hollywood</t>
+  </si>
+  <si>
+    <t>Lincoln Heights, Montecito Heights</t>
+  </si>
+  <si>
+    <t>Monterey Hills</t>
+  </si>
+  <si>
+    <t>Boyle Heights</t>
+  </si>
+  <si>
+    <t>Palms</t>
+  </si>
+  <si>
+    <t>West Fairfax</t>
+  </si>
+  <si>
+    <t>Melrose</t>
+  </si>
+  <si>
+    <t>Atwater Village</t>
+  </si>
+  <si>
+    <t>Eagle Rock</t>
+  </si>
+  <si>
+    <t>Highland Park</t>
+  </si>
+  <si>
+    <t>Hyde Park</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Los Angeles internation Airport</t>
+  </si>
+  <si>
+    <t>West Hollywood</t>
+  </si>
+  <si>
+    <t>Mid-City West</t>
+  </si>
+  <si>
+    <t>Brentwood</t>
+  </si>
+  <si>
+    <t>Westlake</t>
+  </si>
+  <si>
+    <t>Vernon</t>
+  </si>
+  <si>
+    <t>Willowbrook</t>
+  </si>
+  <si>
+    <t>Rancho Park</t>
+  </si>
+  <si>
+    <t>Glassell Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culver City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Century City </t>
+  </si>
+  <si>
+    <t>Bel Air</t>
+  </si>
+  <si>
+    <t>Playa Vista</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Bell Gardens</t>
+  </si>
+  <si>
+    <t>Compton</t>
+  </si>
+  <si>
+    <t>Rancho Dominguez</t>
+  </si>
+  <si>
+    <t>East Rancho Dominguez</t>
+  </si>
+  <si>
+    <t>Hawthorne </t>
+  </si>
+  <si>
+    <t>Walnut Park</t>
+  </si>
+  <si>
+    <t>Huntington Park</t>
+  </si>
+  <si>
+    <t>Maywood</t>
+  </si>
+  <si>
+    <t>Pacific Palisades</t>
+  </si>
+  <si>
+    <t>Rolling Hills</t>
+  </si>
+  <si>
+    <t>Palos Verdes Estates</t>
+  </si>
+  <si>
+    <t>Rancho Palos Verdes</t>
+  </si>
+  <si>
+    <t>Redondo Beach</t>
+  </si>
+  <si>
+    <t>Venice</t>
+  </si>
+  <si>
+    <t>Marina del Rey</t>
+  </si>
+  <si>
+    <t>Playa del Rey</t>
+  </si>
+  <si>
+    <t>East La Mirada</t>
+  </si>
+  <si>
+    <t>South Whittier</t>
+  </si>
+  <si>
+    <t>Los Nietos</t>
+  </si>
+  <si>
+    <t>Harbor City</t>
+  </si>
+  <si>
+    <t>San Pedro</t>
+  </si>
+  <si>
+    <t>Long Beach </t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>Belmont Shore</t>
+  </si>
+  <si>
+    <t>East Long Beach</t>
+  </si>
+  <si>
+    <t>North Long Beach</t>
+  </si>
+  <si>
+    <t>Bixby Knolls</t>
+  </si>
+  <si>
+    <t>Sunland</t>
+  </si>
+  <si>
+    <t>Tujunga</t>
+  </si>
+  <si>
+    <t>Azusa</t>
+  </si>
+  <si>
+    <t>Tropico</t>
+  </si>
+  <si>
+    <t>La Crescenta</t>
+  </si>
+  <si>
+    <t>Agoura Hills</t>
+  </si>
+  <si>
+    <t>Calabasas</t>
+  </si>
+  <si>
+    <t>Hidden Hills</t>
+  </si>
+  <si>
+    <t>Canoga Park</t>
+  </si>
+  <si>
+    <t>Winnetka</t>
+  </si>
+  <si>
+    <t>Bell Canyon</t>
+  </si>
+  <si>
+    <t>Chatsworth</t>
+  </si>
+  <si>
+    <t>Encino</t>
+  </si>
+  <si>
+    <t>Newhall</t>
+  </si>
+  <si>
+    <t>Santa Clarita</t>
+  </si>
+  <si>
+    <t>Northridge</t>
+  </si>
+  <si>
+    <t>Arleta</t>
+  </si>
+  <si>
+    <t>Reseda</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>Sylmar</t>
+  </si>
+  <si>
+    <t>North Hills</t>
+  </si>
+  <si>
+    <t>Granada Hills</t>
+  </si>
+  <si>
+    <t>Mission Hills</t>
+  </si>
+  <si>
+    <t>Canyon County</t>
+  </si>
+  <si>
+    <t>Sun Valley</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Tarzana</t>
+  </si>
+  <si>
+    <t>Woodland Hills</t>
+  </si>
+  <si>
+    <t>Saugus</t>
+  </si>
+  <si>
+    <t>Van Nuys</t>
+  </si>
+  <si>
+    <t>Panorama City</t>
+  </si>
+  <si>
+    <t>Sherman Oaks</t>
+  </si>
+  <si>
+    <t>Valley Glen</t>
+  </si>
+  <si>
+    <t>North Hollywood</t>
+  </si>
+  <si>
+    <t>Irwindale</t>
+  </si>
+  <si>
+    <t>Baldwin Park</t>
+  </si>
+  <si>
+    <t>Charter Oak</t>
+  </si>
+  <si>
+    <t>South El Monte</t>
+  </si>
+  <si>
+    <t>City of Industry</t>
+  </si>
+  <si>
+    <t>Phillips Ranch</t>
+  </si>
+  <si>
+    <t>Rowland Heights</t>
+  </si>
+  <si>
+    <t>Lake Los Angeles</t>
+  </si>
+  <si>
+    <t>Littlerock</t>
+  </si>
+  <si>
+    <t>Lake Los Angeles,</t>
+  </si>
+  <si>
+    <t>Avocado Heights</t>
+  </si>
+  <si>
+    <t>La Puente</t>
+  </si>
+  <si>
+    <t>Jefferson Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downtown </t>
+  </si>
+  <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
+    <t>Downtown Bunker Hill</t>
+  </si>
+  <si>
+    <t>Downtown</t>
+  </si>
+  <si>
+    <t>public_transit_stops</t>
+  </si>
+  <si>
+    <t>school_test_scores</t>
+  </si>
+  <si>
+    <t>average_temp</t>
+  </si>
+  <si>
+    <t>0br_2020</t>
+  </si>
+  <si>
+    <t>0br_2021</t>
+  </si>
+  <si>
+    <t>0br_2022</t>
+  </si>
+  <si>
+    <t>0br_2023</t>
+  </si>
+  <si>
+    <t>0br_2019</t>
+  </si>
+  <si>
+    <t>mean_rent</t>
+  </si>
+  <si>
     <t>rent_2024</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>median_household_income</t>
-  </si>
-  <si>
-    <t>average_household_size</t>
-  </si>
-  <si>
-    <t>white_population</t>
-  </si>
-  <si>
-    <t>black_population</t>
-  </si>
-  <si>
-    <t>latino_population</t>
-  </si>
-  <si>
-    <t>asian_population</t>
-  </si>
-  <si>
-    <t>job_growth_rate</t>
-  </si>
-  <si>
-    <t>neighborhood</t>
-  </si>
-  <si>
-    <t>Florence-Graham</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>Los Angeles </t>
-  </si>
-  <si>
-    <t>South Los Angeles</t>
-  </si>
-  <si>
-    <t>Hancock Park</t>
-  </si>
-  <si>
-    <t>Rampart Village</t>
-  </si>
-  <si>
-    <t>Byzantine-Latino Quarter, Harvard Heights, Koreatown, Pico Heights</t>
-  </si>
-  <si>
-    <t>Baldwin Hills, Crenshaw, Leimert Park</t>
-  </si>
-  <si>
-    <t>Hancock Park, Wilshire Center, Windsor Square</t>
-  </si>
-  <si>
-    <t>Southeast Los Angeles</t>
-  </si>
-  <si>
-    <t>Downtown Civic Center, Chinatown, Arts District, Bunker Hill, Historic Core, Little Tokyo</t>
-  </si>
-  <si>
-    <t>Downtown Historic Core, Arts District</t>
-  </si>
-  <si>
-    <t>Dowtown Fashion District, South Park-South</t>
-  </si>
-  <si>
-    <t>West Adams</t>
-  </si>
-  <si>
-    <t>Arlington Heights, Country Club Park, Mid-City</t>
-  </si>
-  <si>
-    <t>Hancock Park, Western Wilton, Wilshire Center, Windsor Square</t>
-  </si>
-  <si>
-    <t>Commerce</t>
-  </si>
-  <si>
-    <t>Westwood</t>
-  </si>
-  <si>
-    <t>Sawtelle, West Los Angeles</t>
-  </si>
-  <si>
-    <t>Echo Park</t>
-  </si>
-  <si>
-    <t>Griffith Park, Hollywood, Los Feliz</t>
-  </si>
-  <si>
-    <t>Hollywood</t>
-  </si>
-  <si>
-    <t>East Hollywood</t>
-  </si>
-  <si>
-    <t>Lincoln Heights, Montecito Heights</t>
-  </si>
-  <si>
-    <t>Monterey Hills</t>
-  </si>
-  <si>
-    <t>Boyle Heights</t>
-  </si>
-  <si>
-    <t>Palms</t>
-  </si>
-  <si>
-    <t>West Fairfax</t>
-  </si>
-  <si>
-    <t>Melrose</t>
-  </si>
-  <si>
-    <t>Atwater Village</t>
-  </si>
-  <si>
-    <t>Eagle Rock</t>
-  </si>
-  <si>
-    <t>Highland Park</t>
-  </si>
-  <si>
-    <t>Hyde Park</t>
-  </si>
-  <si>
-    <t>Athens</t>
-  </si>
-  <si>
-    <t>Los Angeles internation Airport</t>
-  </si>
-  <si>
-    <t>West Hollywood</t>
-  </si>
-  <si>
-    <t>Mid-City West</t>
-  </si>
-  <si>
-    <t>Brentwood</t>
-  </si>
-  <si>
-    <t>Westlake</t>
-  </si>
-  <si>
-    <t>Vernon</t>
-  </si>
-  <si>
-    <t>Willowbrook</t>
-  </si>
-  <si>
-    <t>Rancho Park</t>
-  </si>
-  <si>
-    <t>Glassell Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culver City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Century City </t>
-  </si>
-  <si>
-    <t>Bel Air</t>
-  </si>
-  <si>
-    <t>Playa Vista</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>Bell Gardens</t>
-  </si>
-  <si>
-    <t>Compton</t>
-  </si>
-  <si>
-    <t>Rancho Dominguez</t>
-  </si>
-  <si>
-    <t>East Rancho Dominguez</t>
-  </si>
-  <si>
-    <t>Hawthorne </t>
-  </si>
-  <si>
-    <t>Walnut Park</t>
-  </si>
-  <si>
-    <t>Huntington Park</t>
-  </si>
-  <si>
-    <t>Maywood</t>
-  </si>
-  <si>
-    <t>Pacific Palisades</t>
-  </si>
-  <si>
-    <t>Rolling Hills</t>
-  </si>
-  <si>
-    <t>Palos Verdes Estates</t>
-  </si>
-  <si>
-    <t>Rancho Palos Verdes</t>
-  </si>
-  <si>
-    <t>Redondo Beach</t>
-  </si>
-  <si>
-    <t>Venice</t>
-  </si>
-  <si>
-    <t>Marina del Rey</t>
-  </si>
-  <si>
-    <t>Playa del Rey</t>
-  </si>
-  <si>
-    <t>East La Mirada</t>
-  </si>
-  <si>
-    <t>South Whittier</t>
-  </si>
-  <si>
-    <t>Los Nietos</t>
-  </si>
-  <si>
-    <t>Harbor City</t>
-  </si>
-  <si>
-    <t>San Pedro</t>
-  </si>
-  <si>
-    <t>Long Beach </t>
-  </si>
-  <si>
-    <t>Wilmington</t>
-  </si>
-  <si>
-    <t>Belmont Shore</t>
-  </si>
-  <si>
-    <t>East Long Beach</t>
-  </si>
-  <si>
-    <t>North Long Beach</t>
-  </si>
-  <si>
-    <t>Bixby Knolls</t>
-  </si>
-  <si>
-    <t>Sunland</t>
-  </si>
-  <si>
-    <t>Tujunga</t>
-  </si>
-  <si>
-    <t>Azusa</t>
-  </si>
-  <si>
-    <t>Tropico</t>
-  </si>
-  <si>
-    <t>La Crescenta</t>
-  </si>
-  <si>
-    <t>Agoura Hills</t>
-  </si>
-  <si>
-    <t>Calabasas</t>
-  </si>
-  <si>
-    <t>Hidden Hills</t>
-  </si>
-  <si>
-    <t>Canoga Park</t>
-  </si>
-  <si>
-    <t>Winnetka</t>
-  </si>
-  <si>
-    <t>Bell Canyon</t>
-  </si>
-  <si>
-    <t>Chatsworth</t>
-  </si>
-  <si>
-    <t>Encino</t>
-  </si>
-  <si>
-    <t>Newhall</t>
-  </si>
-  <si>
-    <t>Santa Clarita</t>
-  </si>
-  <si>
-    <t>Northridge</t>
-  </si>
-  <si>
-    <t>Arleta</t>
-  </si>
-  <si>
-    <t>Reseda</t>
-  </si>
-  <si>
-    <t>San Fernando</t>
-  </si>
-  <si>
-    <t>Sylmar</t>
-  </si>
-  <si>
-    <t>North Hills</t>
-  </si>
-  <si>
-    <t>Granada Hills</t>
-  </si>
-  <si>
-    <t>Mission Hills</t>
-  </si>
-  <si>
-    <t>Canyon County</t>
-  </si>
-  <si>
-    <t>Sun Valley</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Tarzana</t>
-  </si>
-  <si>
-    <t>Woodland Hills</t>
-  </si>
-  <si>
-    <t>Saugus</t>
-  </si>
-  <si>
-    <t>Van Nuys</t>
-  </si>
-  <si>
-    <t>Panorama City</t>
-  </si>
-  <si>
-    <t>Sherman Oaks</t>
-  </si>
-  <si>
-    <t>Valley Glen</t>
-  </si>
-  <si>
-    <t>North Hollywood</t>
-  </si>
-  <si>
-    <t>Irwindale</t>
-  </si>
-  <si>
-    <t>Baldwin Park</t>
-  </si>
-  <si>
-    <t>Charter Oak</t>
-  </si>
-  <si>
-    <t>South El Monte</t>
-  </si>
-  <si>
-    <t>City of Industry</t>
-  </si>
-  <si>
-    <t>Phillips Ranch</t>
-  </si>
-  <si>
-    <t>Rowland Heights</t>
-  </si>
-  <si>
-    <t>Lake Los Angeles</t>
-  </si>
-  <si>
-    <t>Littlerock</t>
-  </si>
-  <si>
-    <t>Lake Los Angeles,</t>
-  </si>
-  <si>
-    <t>Avocado Heights</t>
-  </si>
-  <si>
-    <t>La Puente</t>
-  </si>
-  <si>
-    <t>Jefferson Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downtown </t>
-  </si>
-  <si>
-    <t>Hawthorne</t>
-  </si>
-  <si>
-    <t>Downtown Bunker Hill</t>
-  </si>
-  <si>
-    <t>Downtown</t>
-  </si>
-  <si>
-    <t>public_transit_stops</t>
-  </si>
-  <si>
-    <t>school_test_scores</t>
-  </si>
-  <si>
-    <t>average_temp</t>
-  </si>
-  <si>
-    <t>0br_2020</t>
-  </si>
-  <si>
-    <t>0br_2021</t>
-  </si>
-  <si>
-    <t>0br_2022</t>
-  </si>
-  <si>
-    <t>0br_2023</t>
-  </si>
-  <si>
-    <t>0br_2019</t>
-  </si>
-  <si>
-    <t>mean_rent</t>
   </si>
 </sst>
 </file>
@@ -764,19 +763,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,16 +1091,15 @@
   <dimension ref="A1:AI267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="7" customWidth="1"/>
+    <col min="3" max="6" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1112,76 +1108,76 @@
         <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M1" t="s">
         <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
         <v>62</v>
       </c>
       <c r="P1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R1" t="s">
         <v>63</v>
       </c>
       <c r="S1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" t="s">
         <v>69</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>70</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>71</v>
-      </c>
-      <c r="V1" t="s">
-        <v>72</v>
       </c>
       <c r="W1" t="s">
         <v>64</v>
       </c>
       <c r="X1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1189,16 +1185,16 @@
         <v>90001</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
       </c>
       <c r="E2">
         <f>AVERAGE(F2:J2)</f>
         <v>1134</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>970</v>
       </c>
       <c r="G2">
@@ -1216,7 +1212,7 @@
       <c r="K2" s="1">
         <v>55859</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="6">
         <v>57698</v>
       </c>
       <c r="M2">
@@ -1261,16 +1257,16 @@
         <v>90002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">AVERAGE(F3:J3)</f>
         <v>1134</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>970</v>
       </c>
       <c r="G3">
@@ -1288,7 +1284,7 @@
       <c r="K3" s="1">
         <v>53150</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>54221</v>
       </c>
       <c r="M3">
@@ -1309,16 +1305,16 @@
         <v>90003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>980</v>
       </c>
       <c r="G4">
@@ -1336,7 +1332,7 @@
       <c r="K4" s="1">
         <v>72764</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <v>51275</v>
       </c>
       <c r="M4">
@@ -1357,16 +1353,16 @@
         <v>90004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>1386</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>1230</v>
       </c>
       <c r="G5">
@@ -1384,7 +1380,7 @@
       <c r="K5" s="1">
         <v>58585</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <v>58420</v>
       </c>
       <c r="M5">
@@ -1405,16 +1401,16 @@
         <v>90005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>1464</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>1250</v>
       </c>
       <c r="G6">
@@ -1432,7 +1428,7 @@
       <c r="K6" s="1">
         <v>37987</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>49226</v>
       </c>
       <c r="M6">
@@ -1453,16 +1449,16 @@
         <v>90006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>1192</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>1050</v>
       </c>
       <c r="G7">
@@ -1480,7 +1476,7 @@
       <c r="K7" s="1">
         <v>58229</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>47599</v>
       </c>
       <c r="M7">
@@ -1501,16 +1497,16 @@
         <v>90007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>1202</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>1070</v>
       </c>
       <c r="G8">
@@ -1528,7 +1524,7 @@
       <c r="K8" s="1">
         <v>40944</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>36326</v>
       </c>
       <c r="M8">
@@ -1549,16 +1545,16 @@
         <v>90008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>1172</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>1020</v>
       </c>
       <c r="G9">
@@ -1576,7 +1572,7 @@
       <c r="K9" s="1">
         <v>33041</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>57880</v>
       </c>
       <c r="M9">
@@ -1597,16 +1593,16 @@
         <v>90010</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>1784</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>1560</v>
       </c>
       <c r="G10">
@@ -1624,7 +1620,7 @@
       <c r="K10" s="1">
         <v>5400</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>92454</v>
       </c>
       <c r="M10">
@@ -1645,16 +1641,16 @@
         <v>90011</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>1134</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>970</v>
       </c>
       <c r="G11">
@@ -1672,7 +1668,7 @@
       <c r="K11" s="1">
         <v>102308</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <v>51819</v>
       </c>
       <c r="N11">
@@ -1690,16 +1686,16 @@
         <v>90012</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>1282</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>1030</v>
       </c>
       <c r="G12">
@@ -1717,7 +1713,7 @@
       <c r="K12" s="1">
         <v>33851</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>58444</v>
       </c>
       <c r="N12">
@@ -1735,16 +1731,16 @@
         <v>90013</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>1576</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>1350</v>
       </c>
       <c r="G13">
@@ -1762,7 +1758,7 @@
       <c r="K13" s="1">
         <v>15589</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="6">
         <v>24853</v>
       </c>
       <c r="N13">
@@ -1780,16 +1776,16 @@
         <v>90014</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>1560</v>
       </c>
       <c r="G14">
@@ -1807,7 +1803,7 @@
       <c r="K14" s="1">
         <v>9254</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="6">
         <v>26550</v>
       </c>
       <c r="N14">
@@ -1825,16 +1821,16 @@
         <v>90015</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>1406</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>1060</v>
       </c>
       <c r="G15">
@@ -1852,7 +1848,7 @@
       <c r="K15" s="1">
         <v>27324</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="6">
         <v>61959</v>
       </c>
       <c r="N15">
@@ -1870,16 +1866,16 @@
         <v>90016</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>1230</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>1080</v>
       </c>
       <c r="G16">
@@ -1897,7 +1893,7 @@
       <c r="K16" s="1">
         <v>46512</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="6">
         <v>63090</v>
       </c>
       <c r="N16">
@@ -1915,16 +1911,16 @@
         <v>90017</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>1348</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>1110</v>
       </c>
       <c r="G17">
@@ -1942,7 +1938,7 @@
       <c r="K17" s="1">
         <v>27295</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="6">
         <v>46626</v>
       </c>
       <c r="N17">
@@ -1960,16 +1956,16 @@
         <v>90018</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
         <v>1184</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>1030</v>
       </c>
       <c r="G18">
@@ -1987,7 +1983,7 @@
       <c r="K18" s="1">
         <v>50179</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="6">
         <v>58987</v>
       </c>
       <c r="N18">
@@ -2005,16 +2001,16 @@
         <v>90019</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>1358</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>1180</v>
       </c>
       <c r="G19">
@@ -2032,7 +2028,7 @@
       <c r="K19" s="1">
         <v>62002</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <v>65972</v>
       </c>
       <c r="M19">
@@ -2056,16 +2052,16 @@
         <v>90020</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>1526</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>1360</v>
       </c>
       <c r="G20">
@@ -2083,7 +2079,7 @@
       <c r="K20" s="1">
         <v>38694</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="6">
         <v>55321</v>
       </c>
       <c r="N20">
@@ -2101,16 +2097,16 @@
         <v>90021</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
         <v>1530</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>1050</v>
       </c>
       <c r="G21">
@@ -2128,7 +2124,7 @@
       <c r="K21" s="1">
         <v>5192</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="6">
         <v>29659</v>
       </c>
       <c r="N21">
@@ -2155,7 +2151,7 @@
         <f t="shared" si="0"/>
         <v>1142</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>980</v>
       </c>
       <c r="G22">
@@ -2173,7 +2169,7 @@
       <c r="K22" s="1">
         <v>64517</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="6">
         <v>65142</v>
       </c>
       <c r="M22">
@@ -2191,17 +2187,17 @@
         <v>90023</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23">
         <f t="shared" si="0"/>
         <v>1134</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>970</v>
       </c>
       <c r="G23">
@@ -2219,7 +2215,7 @@
       <c r="K23" s="1">
         <v>45939</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="6">
         <v>52918</v>
       </c>
       <c r="M23">
@@ -2240,16 +2236,16 @@
         <v>90024</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>1740</v>
       </c>
       <c r="G24">
@@ -2267,7 +2263,7 @@
       <c r="K24" s="1">
         <v>52862</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="6">
         <v>74852</v>
       </c>
       <c r="N24">
@@ -2285,16 +2281,16 @@
         <v>90025</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>1720</v>
       </c>
       <c r="G25">
@@ -2312,7 +2308,7 @@
       <c r="K25" s="1">
         <v>45466</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="6">
         <v>103511</v>
       </c>
       <c r="N25">
@@ -2330,16 +2326,16 @@
         <v>90026</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
         <v>1298</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>1110</v>
       </c>
       <c r="G26">
@@ -2357,7 +2353,7 @@
       <c r="K26" s="1">
         <v>63329</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="6">
         <v>80549</v>
       </c>
       <c r="N26">
@@ -2375,16 +2371,16 @@
         <v>90027</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
         <v>1566</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>1350</v>
       </c>
       <c r="G27">
@@ -2402,7 +2398,7 @@
       <c r="K27" s="1">
         <v>44471</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="6">
         <v>86826</v>
       </c>
       <c r="N27">
@@ -2420,16 +2416,16 @@
         <v>90028</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
         <v>1624</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>1400</v>
       </c>
       <c r="G28">
@@ -2447,7 +2443,7 @@
       <c r="K28" s="1">
         <v>32330</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="6">
         <v>57258</v>
       </c>
       <c r="N28">
@@ -2465,16 +2461,16 @@
         <v>90029</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
         <v>1276</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>1110</v>
       </c>
       <c r="G29">
@@ -2492,7 +2488,7 @@
       <c r="K29" s="1">
         <v>34695</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="6">
         <v>56529</v>
       </c>
       <c r="N29">
@@ -2510,16 +2506,16 @@
         <v>90031</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
         <v>1136</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>970</v>
       </c>
       <c r="G30">
@@ -2537,7 +2533,7 @@
       <c r="K30" s="1">
         <v>37333</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="6">
         <v>59889</v>
       </c>
       <c r="N30">
@@ -2555,16 +2551,16 @@
         <v>90032</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
         <v>1154</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>1010</v>
       </c>
       <c r="G31">
@@ -2582,7 +2578,7 @@
       <c r="K31" s="1">
         <v>43506</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="6">
         <v>76608</v>
       </c>
       <c r="N31">
@@ -2600,16 +2596,16 @@
         <v>90033</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
         <v>1134</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>970</v>
       </c>
       <c r="G32">
@@ -2627,7 +2623,7 @@
       <c r="K32" s="1">
         <v>46081</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="6">
         <v>50616</v>
       </c>
       <c r="N32">
@@ -2645,16 +2641,16 @@
         <v>90034</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
         <v>1652</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>1430</v>
       </c>
       <c r="G33">
@@ -2672,7 +2668,7 @@
       <c r="K33" s="1">
         <v>57152</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="6">
         <v>97511</v>
       </c>
       <c r="N33">
@@ -2690,16 +2686,16 @@
         <v>90035</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
         <v>1814</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>1600</v>
       </c>
       <c r="G34">
@@ -2717,7 +2713,7 @@
       <c r="K34" s="1">
         <v>30294</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="6">
         <v>110520</v>
       </c>
       <c r="N34">
@@ -2735,16 +2731,16 @@
         <v>90036</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>1740</v>
       </c>
       <c r="G35">
@@ -2762,7 +2758,7 @@
       <c r="K35" s="1">
         <v>39549</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="6">
         <v>97583</v>
       </c>
       <c r="N35">
@@ -2780,16 +2776,16 @@
         <v>90037</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
         <v>1156</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>1000</v>
       </c>
       <c r="G36">
@@ -2807,7 +2803,7 @@
       <c r="K36" s="1">
         <v>63706</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="6">
         <v>52238</v>
       </c>
       <c r="N36">
@@ -2825,16 +2821,16 @@
         <v>90038</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
         <v>1446</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>1260</v>
       </c>
       <c r="G37">
@@ -2852,7 +2848,7 @@
       <c r="K37" s="1">
         <v>27414</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="6">
         <v>57102</v>
       </c>
       <c r="N37">
@@ -2870,16 +2866,16 @@
         <v>90039</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
         <v>1538</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>1290</v>
       </c>
       <c r="G38">
@@ -2897,7 +2893,7 @@
       <c r="K38" s="1">
         <v>28059</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="6">
         <v>108338</v>
       </c>
       <c r="M38">
@@ -2918,16 +2914,16 @@
         <v>90040</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
         <v>1134</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>970</v>
       </c>
       <c r="G39">
@@ -2945,7 +2941,7 @@
       <c r="K39" s="1">
         <v>12089</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="6">
         <v>62083</v>
       </c>
       <c r="M39">
@@ -2966,16 +2962,16 @@
         <v>90041</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
         <v>1384</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>1210</v>
       </c>
       <c r="G40">
@@ -2993,7 +2989,7 @@
       <c r="K40" s="1">
         <v>26654</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="6">
         <v>111938</v>
       </c>
       <c r="N40">
@@ -3011,16 +3007,16 @@
         <v>90042</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
         <v>1324</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>1170</v>
       </c>
       <c r="G41">
@@ -3038,7 +3034,7 @@
       <c r="K41" s="1">
         <v>58295</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L41" s="6">
         <v>89168</v>
       </c>
       <c r="N41">
@@ -3056,16 +3052,16 @@
         <v>90043</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
         <v>1176</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>1050</v>
       </c>
       <c r="G42">
@@ -3083,7 +3079,7 @@
       <c r="K42" s="1">
         <v>46179</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="6">
         <v>63990</v>
       </c>
       <c r="N42">
@@ -3101,16 +3097,16 @@
         <v>90044</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
         <v>1138</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>980</v>
       </c>
       <c r="G43">
@@ -3128,7 +3124,7 @@
       <c r="K43" s="1">
         <v>94354</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L43" s="6">
         <v>48386</v>
       </c>
       <c r="M43">
@@ -3149,16 +3145,16 @@
         <v>90045</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
         <v>1786</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>1540</v>
       </c>
       <c r="G44">
@@ -3176,7 +3172,7 @@
       <c r="K44" s="1">
         <v>41035</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="6">
         <v>125692</v>
       </c>
       <c r="N44">
@@ -3194,16 +3190,16 @@
         <v>90046</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
         <v>1742</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>1540</v>
       </c>
       <c r="G45">
@@ -3221,7 +3217,7 @@
       <c r="K45" s="1">
         <v>49987</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="6">
         <v>87339</v>
       </c>
       <c r="M45">
@@ -3245,16 +3241,16 @@
         <v>90047</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
         <v>1198</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>1050</v>
       </c>
       <c r="G46">
@@ -3272,7 +3268,7 @@
       <c r="K46" s="1">
         <v>50154</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="6">
         <v>67018</v>
       </c>
       <c r="N46">
@@ -3290,16 +3286,16 @@
         <v>90048</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>1740</v>
       </c>
       <c r="G47">
@@ -3317,7 +3313,7 @@
       <c r="K47" s="1">
         <v>22604</v>
       </c>
-      <c r="L47" s="8">
+      <c r="L47" s="6">
         <v>102244</v>
       </c>
       <c r="N47">
@@ -3335,16 +3331,16 @@
         <v>90049</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>1740</v>
       </c>
       <c r="G48">
@@ -3362,7 +3358,7 @@
       <c r="K48" s="1">
         <v>36980</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="6">
         <v>161605</v>
       </c>
       <c r="N48">
@@ -3389,7 +3385,7 @@
         <f t="shared" si="0"/>
         <v>1602</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>1360</v>
       </c>
       <c r="G49">
@@ -3407,7 +3403,7 @@
       <c r="K49" s="1">
         <v>8184</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L49" s="6">
         <v>123457</v>
       </c>
       <c r="M49">
@@ -3428,16 +3424,16 @@
         <v>90057</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
         <v>1246</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>1090</v>
       </c>
       <c r="G50">
@@ -3455,7 +3451,7 @@
       <c r="K50" s="1">
         <v>45510</v>
       </c>
-      <c r="L50" s="8">
+      <c r="L50" s="6">
         <v>46513</v>
       </c>
       <c r="N50">
@@ -3473,16 +3469,16 @@
         <v>90058</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
         <v>1134</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>970</v>
       </c>
       <c r="G51">
@@ -3500,7 +3496,7 @@
       <c r="K51" s="1">
         <v>3751</v>
       </c>
-      <c r="L51" s="8">
+      <c r="L51" s="6">
         <v>34093</v>
       </c>
       <c r="M51">
@@ -3521,16 +3517,16 @@
         <v>90059</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
         <v>1134</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>970</v>
       </c>
       <c r="G52">
@@ -3548,7 +3544,7 @@
       <c r="K52" s="1">
         <v>43551</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L52" s="6">
         <v>50939</v>
       </c>
       <c r="M52">
@@ -3569,16 +3565,16 @@
         <v>90061</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
         <v>1158</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>1030</v>
       </c>
       <c r="G53">
@@ -3596,7 +3592,7 @@
       <c r="K53" s="1">
         <v>29570</v>
       </c>
-      <c r="L53" s="8">
+      <c r="L53" s="6">
         <v>56837</v>
       </c>
       <c r="N53">
@@ -3614,16 +3610,16 @@
         <v>90062</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
         <v>1170</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>1030</v>
       </c>
       <c r="G54">
@@ -3641,7 +3637,7 @@
       <c r="K54" s="1">
         <v>32524</v>
       </c>
-      <c r="L54" s="8">
+      <c r="L54" s="6">
         <v>61422</v>
       </c>
       <c r="N54">
@@ -3659,16 +3655,16 @@
         <v>90063</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
         <v>1134</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="5">
         <v>970</v>
       </c>
       <c r="G55">
@@ -3686,7 +3682,7 @@
       <c r="K55" s="1">
         <v>50227</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L55" s="6">
         <v>69307</v>
       </c>
       <c r="N55">
@@ -3704,16 +3700,16 @@
         <v>90064</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
         <v>1992</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>1690</v>
       </c>
       <c r="G56">
@@ -3731,7 +3727,7 @@
       <c r="K56" s="1">
         <v>27553</v>
       </c>
-      <c r="L56" s="8">
+      <c r="L56" s="6">
         <v>123929</v>
       </c>
       <c r="N56">
@@ -3749,16 +3745,16 @@
         <v>90065</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
         <v>1228</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>1050</v>
       </c>
       <c r="G57">
@@ -3776,7 +3772,7 @@
       <c r="K57" s="1">
         <v>44328</v>
       </c>
-      <c r="L57" s="8">
+      <c r="L57" s="6">
         <v>88329</v>
       </c>
       <c r="N57">
@@ -3794,17 +3790,17 @@
         <v>90066</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58">
         <f t="shared" si="0"/>
         <v>1704</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <v>1460</v>
       </c>
       <c r="G58">
@@ -3822,7 +3818,7 @@
       <c r="K58" s="1">
         <v>55304</v>
       </c>
-      <c r="L58" s="8">
+      <c r="L58" s="6">
         <v>100344</v>
       </c>
       <c r="M58">
@@ -3843,16 +3839,16 @@
         <v>90067</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <v>1740</v>
       </c>
       <c r="G59">
@@ -3870,7 +3866,7 @@
       <c r="K59" s="1">
         <v>3344</v>
       </c>
-      <c r="L59" s="8">
+      <c r="L59" s="6">
         <v>125995</v>
       </c>
       <c r="N59">
@@ -3888,16 +3884,16 @@
         <v>90068</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
         <v>1812</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="5">
         <v>1540</v>
       </c>
       <c r="G60">
@@ -3915,7 +3911,7 @@
       <c r="K60" s="1">
         <v>24361</v>
       </c>
-      <c r="L60" s="8">
+      <c r="L60" s="6">
         <v>97151</v>
       </c>
       <c r="N60">
@@ -3933,16 +3929,16 @@
         <v>90069</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="5">
         <v>1740</v>
       </c>
       <c r="G61">
@@ -3960,7 +3956,7 @@
       <c r="K61" s="1">
         <v>20584</v>
       </c>
-      <c r="L61" s="8">
+      <c r="L61" s="6">
         <v>106133</v>
       </c>
       <c r="M61">
@@ -3981,16 +3977,16 @@
         <v>90077</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="5">
         <v>1740</v>
       </c>
       <c r="G62">
@@ -4008,7 +4004,7 @@
       <c r="K62" s="1">
         <v>8874</v>
       </c>
-      <c r="L62" s="8">
+      <c r="L62" s="6">
         <v>203194</v>
       </c>
       <c r="M62">
@@ -4026,16 +4022,16 @@
         <v>90094</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="5">
         <v>1740</v>
       </c>
       <c r="G63">
@@ -4053,7 +4049,7 @@
       <c r="K63" s="1">
         <v>12746</v>
       </c>
-      <c r="L63" s="8">
+      <c r="L63" s="6">
         <v>156536</v>
       </c>
       <c r="N63">
@@ -4071,17 +4067,17 @@
         <v>90201</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64">
         <f t="shared" si="0"/>
         <v>1170</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="5">
         <v>1030</v>
       </c>
       <c r="G64">
@@ -4099,7 +4095,7 @@
       <c r="K64" s="1">
         <v>95810</v>
       </c>
-      <c r="L64" s="8">
+      <c r="L64" s="6">
         <v>53692</v>
       </c>
       <c r="M64">
@@ -4129,7 +4125,7 @@
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="5">
         <v>1740</v>
       </c>
       <c r="G65">
@@ -4147,7 +4143,7 @@
       <c r="K65" s="1">
         <v>21134</v>
       </c>
-      <c r="L65" s="8">
+      <c r="L65" s="6">
         <v>172285</v>
       </c>
       <c r="M65">
@@ -4177,7 +4173,7 @@
         <f t="shared" si="0"/>
         <v>1820</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="5">
         <v>1600</v>
       </c>
       <c r="G66">
@@ -4195,7 +4191,7 @@
       <c r="K66" s="1">
         <v>8260</v>
       </c>
-      <c r="L66" s="8">
+      <c r="L66" s="6">
         <v>115025</v>
       </c>
       <c r="M66">
@@ -4225,7 +4221,7 @@
         <f t="shared" ref="E67:E130" si="1">AVERAGE(F67:J67)</f>
         <v>2016</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="5">
         <v>1740</v>
       </c>
       <c r="G67">
@@ -4243,7 +4239,7 @@
       <c r="K67" s="1">
         <v>11451</v>
       </c>
-      <c r="L67" s="8">
+      <c r="L67" s="6">
         <v>101963</v>
       </c>
       <c r="M67">
@@ -4264,16 +4260,16 @@
         <v>90220</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
         <v>1146</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="5">
         <v>1000</v>
       </c>
       <c r="G68">
@@ -4291,7 +4287,7 @@
       <c r="K68" s="1">
         <v>50412</v>
       </c>
-      <c r="L68" s="8">
+      <c r="L68" s="6">
         <v>69901</v>
       </c>
       <c r="M68">
@@ -4312,17 +4308,17 @@
         <v>90221</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69">
         <f t="shared" si="1"/>
         <v>1142</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="5">
         <v>990</v>
       </c>
       <c r="G69">
@@ -4340,7 +4336,7 @@
       <c r="K69" s="1">
         <v>52561</v>
       </c>
-      <c r="L69" s="8">
+      <c r="L69" s="6">
         <v>64439</v>
       </c>
       <c r="M69">
@@ -4361,17 +4357,17 @@
         <v>90222</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70">
         <f t="shared" si="1"/>
         <v>1196</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="5">
         <v>1030</v>
       </c>
       <c r="G70">
@@ -4389,7 +4385,7 @@
       <c r="K70" s="1">
         <v>32397</v>
       </c>
-      <c r="L70" s="8">
+      <c r="L70" s="6">
         <v>68722</v>
       </c>
       <c r="M70">
@@ -4419,7 +4415,7 @@
         <f t="shared" si="1"/>
         <v>1726</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="5">
         <v>1490</v>
       </c>
       <c r="G71">
@@ -4437,7 +4433,7 @@
       <c r="K71" s="1">
         <v>32743</v>
       </c>
-      <c r="L71" s="8">
+      <c r="L71" s="6">
         <v>107870</v>
       </c>
       <c r="M71">
@@ -4467,7 +4463,7 @@
         <f t="shared" si="1"/>
         <v>1796</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="5">
         <v>1570</v>
       </c>
       <c r="G72">
@@ -4485,7 +4481,7 @@
       <c r="K72" s="1">
         <v>16452</v>
       </c>
-      <c r="L72" s="8">
+      <c r="L72" s="6">
         <v>113278</v>
       </c>
       <c r="M72">
@@ -4515,7 +4511,7 @@
         <f t="shared" si="1"/>
         <v>1446</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="5">
         <v>1260</v>
       </c>
       <c r="G73">
@@ -4533,7 +4529,7 @@
       <c r="K73" s="1">
         <v>26495</v>
       </c>
-      <c r="L73" s="8">
+      <c r="L73" s="6">
         <v>99874</v>
       </c>
       <c r="M73">
@@ -4563,7 +4559,7 @@
         <f t="shared" si="1"/>
         <v>1338</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="5">
         <v>1170</v>
       </c>
       <c r="G74">
@@ -4581,7 +4577,7 @@
       <c r="K74" s="1">
         <v>44921</v>
       </c>
-      <c r="L74" s="8">
+      <c r="L74" s="6">
         <v>81220</v>
       </c>
       <c r="M74">
@@ -4611,7 +4607,7 @@
         <f t="shared" si="1"/>
         <v>1360</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="5">
         <v>1190</v>
       </c>
       <c r="G75">
@@ -4629,7 +4625,7 @@
       <c r="K75" s="1">
         <v>42939</v>
       </c>
-      <c r="L75" s="8">
+      <c r="L75" s="6">
         <v>81448</v>
       </c>
       <c r="M75">
@@ -4659,7 +4655,7 @@
         <f t="shared" si="1"/>
         <v>1754</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="5">
         <v>1530</v>
       </c>
       <c r="G76">
@@ -4677,7 +4673,7 @@
       <c r="K76" s="1">
         <v>17272</v>
       </c>
-      <c r="L76" s="8">
+      <c r="L76" s="6">
         <v>142596</v>
       </c>
       <c r="M76">
@@ -4707,7 +4703,7 @@
         <f t="shared" si="1"/>
         <v>1232</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="5">
         <v>1090</v>
       </c>
       <c r="G77">
@@ -4725,7 +4721,7 @@
       <c r="K77" s="1">
         <v>48543</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77" s="6">
         <v>70012</v>
       </c>
       <c r="M77">
@@ -4755,7 +4751,7 @@
         <f t="shared" si="1"/>
         <v>1196</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="5">
         <v>1070</v>
       </c>
       <c r="G78">
@@ -4773,7 +4769,7 @@
       <c r="K78" s="1">
         <v>11295</v>
       </c>
-      <c r="L78" s="8">
+      <c r="L78" s="6">
         <v>75865</v>
       </c>
       <c r="M78">
@@ -4803,7 +4799,7 @@
         <f t="shared" si="1"/>
         <v>1172</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="5">
         <v>1000</v>
       </c>
       <c r="G79">
@@ -4821,7 +4817,7 @@
       <c r="K79" s="1">
         <v>27125</v>
       </c>
-      <c r="L79" s="8">
+      <c r="L79" s="6">
         <v>83125</v>
       </c>
       <c r="M79">
@@ -4842,16 +4838,16 @@
         <v>90250</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
         <v>1242</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="5">
         <v>1090</v>
       </c>
       <c r="G80">
@@ -4869,7 +4865,7 @@
       <c r="K80" s="1">
         <v>97653</v>
       </c>
-      <c r="L80" s="8">
+      <c r="L80" s="6">
         <v>74616</v>
       </c>
       <c r="M80">
@@ -4899,7 +4895,7 @@
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="5">
         <v>1740</v>
       </c>
       <c r="G81">
@@ -4917,7 +4913,7 @@
       <c r="K81" s="1">
         <v>19736</v>
       </c>
-      <c r="L81" s="8">
+      <c r="L81" s="6">
         <v>149500</v>
       </c>
       <c r="M81">
@@ -4938,17 +4934,17 @@
         <v>90255</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82">
         <f t="shared" si="1"/>
         <v>1150</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="5">
         <v>1000</v>
       </c>
       <c r="G82">
@@ -4966,7 +4962,7 @@
       <c r="K82" s="1">
         <v>71157</v>
       </c>
-      <c r="L82" s="8">
+      <c r="L82" s="6">
         <v>57013</v>
       </c>
       <c r="M82">
@@ -4996,7 +4992,7 @@
         <f t="shared" si="1"/>
         <v>1362</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="5">
         <v>1210</v>
       </c>
       <c r="G83">
@@ -5014,7 +5010,7 @@
       <c r="K83" s="1">
         <v>33338</v>
       </c>
-      <c r="L83" s="8">
+      <c r="L83" s="6">
         <v>80205</v>
       </c>
       <c r="M83">
@@ -5044,7 +5040,7 @@
         <f t="shared" si="1"/>
         <v>1154</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="5">
         <v>1000</v>
       </c>
       <c r="G84">
@@ -5062,7 +5058,7 @@
       <c r="K84" s="1">
         <v>67099</v>
       </c>
-      <c r="L84" s="8">
+      <c r="L84" s="6">
         <v>67620</v>
       </c>
       <c r="M84">
@@ -5092,7 +5088,7 @@
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="5">
         <v>1740</v>
       </c>
       <c r="G85">
@@ -5110,7 +5106,7 @@
       <c r="K85" s="1">
         <v>15186</v>
       </c>
-      <c r="L85" s="8">
+      <c r="L85" s="6">
         <v>186264</v>
       </c>
       <c r="M85">
@@ -5140,7 +5136,7 @@
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="5">
         <v>1740</v>
       </c>
       <c r="G86">
@@ -5158,7 +5154,7 @@
       <c r="K86" s="1">
         <v>35506</v>
       </c>
-      <c r="L86" s="8">
+      <c r="L86" s="6">
         <v>187217</v>
       </c>
       <c r="M86">
@@ -5179,17 +5175,17 @@
         <v>90270</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87">
         <f t="shared" si="1"/>
         <v>1152</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="5">
         <v>1020</v>
       </c>
       <c r="G87">
@@ -5207,7 +5203,7 @@
       <c r="K87" s="1">
         <v>25113</v>
       </c>
-      <c r="L87" s="8">
+      <c r="L87" s="6">
         <v>57741</v>
       </c>
       <c r="M87">
@@ -5228,16 +5224,16 @@
         <v>90272</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="5">
         <v>1740</v>
       </c>
       <c r="G88">
@@ -5255,7 +5251,7 @@
       <c r="K88" s="1">
         <v>22849</v>
       </c>
-      <c r="L88" s="8">
+      <c r="L88" s="6">
         <v>225256</v>
       </c>
       <c r="N88">
@@ -5273,17 +5269,17 @@
         <v>90274</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="5">
         <v>1740</v>
       </c>
       <c r="G89">
@@ -5301,7 +5297,7 @@
       <c r="K89" s="1">
         <v>25307</v>
       </c>
-      <c r="L89" s="8">
+      <c r="L89" s="6">
         <v>206013</v>
       </c>
       <c r="M89">
@@ -5322,17 +5318,17 @@
         <v>90275</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="5">
         <v>1740</v>
       </c>
       <c r="G90">
@@ -5350,7 +5346,7 @@
       <c r="K90" s="1">
         <v>42452</v>
       </c>
-      <c r="L90" s="8">
+      <c r="L90" s="6">
         <v>166602</v>
       </c>
       <c r="M90">
@@ -5371,17 +5367,17 @@
         <v>90277</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D91" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="D91" s="1"/>
       <c r="E91">
         <f t="shared" si="1"/>
         <v>1886</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="5">
         <v>1670</v>
       </c>
       <c r="G91">
@@ -5399,7 +5395,7 @@
       <c r="K91" s="1">
         <v>37856</v>
       </c>
-      <c r="L91" s="8">
+      <c r="L91" s="6">
         <v>120008</v>
       </c>
       <c r="M91">
@@ -5420,17 +5416,17 @@
         <v>90278</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D92" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="D92" s="1"/>
       <c r="E92">
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="5">
         <v>1460</v>
       </c>
       <c r="G92">
@@ -5448,7 +5444,7 @@
       <c r="K92" s="1">
         <v>42188</v>
       </c>
-      <c r="L92" s="8">
+      <c r="L92" s="6">
         <v>143785</v>
       </c>
       <c r="M92">
@@ -5478,7 +5474,7 @@
         <f t="shared" si="1"/>
         <v>1168</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="5">
         <v>1020</v>
       </c>
       <c r="G93">
@@ -5496,7 +5492,7 @@
       <c r="K93" s="1">
         <v>92678</v>
       </c>
-      <c r="L93" s="8">
+      <c r="L93" s="6">
         <v>67287</v>
       </c>
       <c r="M93">
@@ -5517,16 +5513,16 @@
         <v>90291</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="5">
         <v>1740</v>
       </c>
       <c r="G94">
@@ -5544,7 +5540,7 @@
       <c r="K94" s="1">
         <v>28442</v>
       </c>
-      <c r="L94" s="8">
+      <c r="L94" s="6">
         <v>111610</v>
       </c>
       <c r="N94">
@@ -5562,17 +5558,17 @@
         <v>90292</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="5">
         <v>1740</v>
       </c>
       <c r="G95">
@@ -5590,7 +5586,7 @@
       <c r="K95" s="1">
         <v>27681</v>
       </c>
-      <c r="L95" s="8">
+      <c r="L95" s="6">
         <v>136854</v>
       </c>
       <c r="N95">
@@ -5608,16 +5604,16 @@
         <v>90293</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
         <v>1972</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="5">
         <v>1660</v>
       </c>
       <c r="G96">
@@ -5635,7 +5631,7 @@
       <c r="K96" s="1">
         <v>12633</v>
       </c>
-      <c r="L96" s="8">
+      <c r="L96" s="6">
         <v>124688</v>
       </c>
       <c r="N96">
@@ -5662,7 +5658,7 @@
         <f t="shared" si="1"/>
         <v>1252</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="5">
         <v>1090</v>
       </c>
       <c r="G97">
@@ -5680,7 +5676,7 @@
       <c r="K97" s="1">
         <v>36270</v>
       </c>
-      <c r="L97" s="8">
+      <c r="L97" s="6">
         <v>61910</v>
       </c>
       <c r="M97">
@@ -5710,7 +5706,7 @@
         <f t="shared" si="1"/>
         <v>1322</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="5">
         <v>1130</v>
       </c>
       <c r="G98">
@@ -5728,7 +5724,7 @@
       <c r="K98" s="1">
         <v>29264</v>
       </c>
-      <c r="L98" s="8">
+      <c r="L98" s="6">
         <v>68662</v>
       </c>
       <c r="M98">
@@ -5758,7 +5754,7 @@
         <f t="shared" si="1"/>
         <v>1214</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="5">
         <v>1040</v>
       </c>
       <c r="G99">
@@ -5776,7 +5772,7 @@
       <c r="K99" s="1">
         <v>24490</v>
       </c>
-      <c r="L99" s="8">
+      <c r="L99" s="6">
         <v>67598</v>
       </c>
       <c r="M99">
@@ -5807,7 +5803,7 @@
         <f t="shared" si="1"/>
         <v>1154</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="5">
         <v>1010</v>
       </c>
       <c r="G100">
@@ -5825,7 +5821,7 @@
       <c r="K100" s="1">
         <v>26058</v>
       </c>
-      <c r="L100" s="8">
+      <c r="L100" s="6">
         <v>57647</v>
       </c>
       <c r="M100">
@@ -5855,7 +5851,7 @@
         <f t="shared" si="1"/>
         <v>1374</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="5">
         <v>1140</v>
       </c>
       <c r="G101">
@@ -5873,7 +5869,7 @@
       <c r="K101" s="1">
         <v>15367</v>
       </c>
-      <c r="L101" s="8">
+      <c r="L101" s="6">
         <v>85466</v>
       </c>
       <c r="M101">
@@ -5903,7 +5899,7 @@
         <f t="shared" si="1"/>
         <v>1886</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="5">
         <v>1550</v>
       </c>
       <c r="G102">
@@ -5921,7 +5917,7 @@
       <c r="K102" s="1">
         <v>8167</v>
       </c>
-      <c r="L102" s="8">
+      <c r="L102" s="6">
         <v>89892</v>
       </c>
       <c r="M102">
@@ -5951,7 +5947,7 @@
         <f t="shared" si="1"/>
         <v>1880</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="5">
         <v>1710</v>
       </c>
       <c r="G103">
@@ -5969,7 +5965,7 @@
       <c r="K103" s="1">
         <v>12295</v>
       </c>
-      <c r="L103" s="8">
+      <c r="L103" s="6">
         <v>171844</v>
       </c>
       <c r="M103">
@@ -5999,7 +5995,7 @@
         <f t="shared" si="1"/>
         <v>1994</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="5">
         <v>1710</v>
       </c>
       <c r="G104">
@@ -6017,7 +6013,7 @@
       <c r="K104" s="1">
         <v>25278</v>
       </c>
-      <c r="L104" s="8">
+      <c r="L104" s="6">
         <v>123391</v>
       </c>
       <c r="M104">
@@ -6047,7 +6043,7 @@
         <f t="shared" si="1"/>
         <v>1460</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="5">
         <v>1320</v>
       </c>
       <c r="G105">
@@ -6065,7 +6061,7 @@
       <c r="K105" s="1">
         <v>21995</v>
       </c>
-      <c r="L105" s="8">
+      <c r="L105" s="6">
         <v>87209</v>
       </c>
       <c r="M105">
@@ -6095,7 +6091,7 @@
         <f t="shared" si="1"/>
         <v>1666</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="5">
         <v>1490</v>
       </c>
       <c r="G106">
@@ -6113,7 +6109,7 @@
       <c r="K106" s="1">
         <v>27966</v>
       </c>
-      <c r="L106" s="8">
+      <c r="L106" s="6">
         <v>101713</v>
       </c>
       <c r="M106">
@@ -6143,7 +6139,7 @@
         <f t="shared" si="1"/>
         <v>1370</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F107" s="5">
         <v>1200</v>
       </c>
       <c r="G107">
@@ -6161,7 +6157,7 @@
       <c r="K107" s="1">
         <v>43990</v>
       </c>
-      <c r="L107" s="8">
+      <c r="L107" s="6">
         <v>89926</v>
       </c>
       <c r="M107">
@@ -6192,7 +6188,7 @@
         <f t="shared" si="1"/>
         <v>1408</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108" s="5">
         <v>1240</v>
       </c>
       <c r="G108">
@@ -6210,7 +6206,7 @@
       <c r="K108" s="1">
         <v>18977</v>
       </c>
-      <c r="L108" s="8">
+      <c r="L108" s="6">
         <v>95528</v>
       </c>
       <c r="M108">
@@ -6240,7 +6236,7 @@
         <f t="shared" si="1"/>
         <v>1684</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109" s="5">
         <v>1470</v>
       </c>
       <c r="G109">
@@ -6258,7 +6254,7 @@
       <c r="K109" s="1">
         <v>45386</v>
       </c>
-      <c r="L109" s="8">
+      <c r="L109" s="6">
         <v>117364</v>
       </c>
       <c r="M109">
@@ -6288,7 +6284,7 @@
         <f t="shared" si="1"/>
         <v>1418</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F110" s="5">
         <v>1270</v>
       </c>
       <c r="G110">
@@ -6306,7 +6302,7 @@
       <c r="K110" s="1">
         <v>32503</v>
       </c>
-      <c r="L110" s="8">
+      <c r="L110" s="6">
         <v>101773</v>
       </c>
       <c r="M110">
@@ -6336,7 +6332,7 @@
         <f t="shared" si="1"/>
         <v>1664</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="5">
         <v>1500</v>
       </c>
       <c r="G111">
@@ -6354,7 +6350,7 @@
       <c r="K111" s="1">
         <v>36643</v>
       </c>
-      <c r="L111" s="8">
+      <c r="L111" s="6">
         <v>108857</v>
       </c>
       <c r="M111">
@@ -6385,7 +6381,7 @@
         <f t="shared" si="1"/>
         <v>1354</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="5">
         <v>1230</v>
       </c>
       <c r="G112">
@@ -6403,7 +6399,7 @@
       <c r="K112" s="1">
         <v>32625</v>
       </c>
-      <c r="L112" s="8">
+      <c r="L112" s="6">
         <v>96209</v>
       </c>
       <c r="M112">
@@ -6433,7 +6429,7 @@
         <f t="shared" si="1"/>
         <v>1280</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113" s="5">
         <v>1130</v>
       </c>
       <c r="G113">
@@ -6451,7 +6447,7 @@
       <c r="K113" s="1">
         <v>25521</v>
       </c>
-      <c r="L113" s="8">
+      <c r="L113" s="6">
         <v>63956</v>
       </c>
       <c r="M113">
@@ -6481,7 +6477,7 @@
         <f t="shared" si="1"/>
         <v>1754</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F114" s="5">
         <v>1560</v>
       </c>
       <c r="G114">
@@ -6499,7 +6495,7 @@
       <c r="K114" s="1">
         <v>21174</v>
       </c>
-      <c r="L114" s="8">
+      <c r="L114" s="6">
         <v>117324</v>
       </c>
       <c r="M114">
@@ -6520,7 +6516,7 @@
         <v>90604</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>16</v>
@@ -6530,7 +6526,7 @@
         <f t="shared" si="1"/>
         <v>1368</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F115" s="5">
         <v>1170</v>
       </c>
       <c r="G115">
@@ -6548,7 +6544,7 @@
       <c r="K115" s="1">
         <v>40110</v>
       </c>
-      <c r="L115" s="8">
+      <c r="L115" s="6">
         <v>95570</v>
       </c>
       <c r="M115">
@@ -6569,7 +6565,7 @@
         <v>90605</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>16</v>
@@ -6579,7 +6575,7 @@
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116" s="5">
         <v>1130</v>
       </c>
       <c r="G116">
@@ -6597,7 +6593,7 @@
       <c r="K116" s="1">
         <v>40189</v>
       </c>
-      <c r="L116" s="8">
+      <c r="L116" s="6">
         <v>94200</v>
       </c>
       <c r="M116">
@@ -6618,7 +6614,7 @@
         <v>90606</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
@@ -6627,7 +6623,7 @@
         <f t="shared" si="1"/>
         <v>1374</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F117" s="5">
         <v>1180</v>
       </c>
       <c r="G117">
@@ -6645,7 +6641,7 @@
       <c r="K117" s="1">
         <v>32078</v>
       </c>
-      <c r="L117" s="8">
+      <c r="L117" s="6">
         <v>86596</v>
       </c>
       <c r="M117">
@@ -6675,7 +6671,7 @@
         <f t="shared" si="1"/>
         <v>1450</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118" s="5">
         <v>1270</v>
       </c>
       <c r="G118">
@@ -6693,7 +6689,7 @@
       <c r="K118" s="1">
         <v>69533</v>
       </c>
-      <c r="L118" s="8">
+      <c r="L118" s="6">
         <v>98009</v>
       </c>
       <c r="M118">
@@ -6723,7 +6719,7 @@
         <f t="shared" si="1"/>
         <v>1660</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F119" s="5">
         <v>1500</v>
       </c>
       <c r="G119">
@@ -6741,7 +6737,7 @@
       <c r="K119" s="1">
         <v>46967</v>
       </c>
-      <c r="L119" s="8">
+      <c r="L119" s="6">
         <v>104114</v>
       </c>
       <c r="M119">
@@ -6771,7 +6767,7 @@
         <f t="shared" si="1"/>
         <v>1232</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120" s="5">
         <v>1080</v>
       </c>
       <c r="G120">
@@ -6789,7 +6785,7 @@
       <c r="K120" s="1">
         <v>62678</v>
       </c>
-      <c r="L120" s="8">
+      <c r="L120" s="6">
         <v>72163</v>
       </c>
       <c r="M120">
@@ -6819,7 +6815,7 @@
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F121" s="5">
         <v>1200</v>
       </c>
       <c r="G121">
@@ -6837,7 +6833,7 @@
       <c r="K121" s="1">
         <v>102891</v>
       </c>
-      <c r="L121" s="8">
+      <c r="L121" s="6">
         <v>82539</v>
       </c>
       <c r="M121">
@@ -6867,7 +6863,7 @@
         <f t="shared" si="1"/>
         <v>1368</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F122" s="5">
         <v>1210</v>
       </c>
       <c r="G122">
@@ -6885,7 +6881,7 @@
       <c r="K122" s="1">
         <v>17761</v>
       </c>
-      <c r="L122" s="8">
+      <c r="L122" s="6">
         <v>83259</v>
       </c>
       <c r="M122">
@@ -6915,7 +6911,7 @@
         <f t="shared" si="1"/>
         <v>1478</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F123" s="5">
         <v>1280</v>
       </c>
       <c r="G123">
@@ -6933,7 +6929,7 @@
       <c r="K123" s="1">
         <v>16434</v>
       </c>
-      <c r="L123" s="8">
+      <c r="L123" s="6">
         <v>92702</v>
       </c>
       <c r="M123">
@@ -6963,7 +6959,7 @@
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F124" s="5">
         <v>1740</v>
       </c>
       <c r="G124">
@@ -6981,7 +6977,7 @@
       <c r="K124" s="1">
         <v>49735</v>
       </c>
-      <c r="L124" s="8">
+      <c r="L124" s="6">
         <v>124240</v>
       </c>
       <c r="M124">
@@ -7011,7 +7007,7 @@
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F125" s="5">
         <v>1130</v>
       </c>
       <c r="G125">
@@ -7029,7 +7025,7 @@
       <c r="K125" s="1">
         <v>79179</v>
       </c>
-      <c r="L125" s="8">
+      <c r="L125" s="6">
         <v>75379</v>
       </c>
       <c r="M125">
@@ -7050,16 +7046,16 @@
         <v>90710</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C126" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E126">
         <f t="shared" si="1"/>
         <v>1174</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F126" s="5">
         <v>1030</v>
       </c>
       <c r="G126">
@@ -7077,7 +7073,7 @@
       <c r="K126" s="1">
         <v>26605</v>
       </c>
-      <c r="L126" s="8">
+      <c r="L126" s="6">
         <v>75114</v>
       </c>
       <c r="N126">
@@ -7104,7 +7100,7 @@
         <f t="shared" si="1"/>
         <v>1710</v>
       </c>
-      <c r="F127" s="6">
+      <c r="F127" s="5">
         <v>1380</v>
       </c>
       <c r="G127">
@@ -7122,7 +7118,7 @@
       <c r="K127" s="1">
         <v>32332</v>
       </c>
-      <c r="L127" s="8">
+      <c r="L127" s="6">
         <v>119143</v>
       </c>
       <c r="M127">
@@ -7152,7 +7148,7 @@
         <f t="shared" si="1"/>
         <v>1882</v>
       </c>
-      <c r="F128" s="6">
+      <c r="F128" s="5">
         <v>1710</v>
       </c>
       <c r="G128">
@@ -7170,7 +7166,7 @@
       <c r="K128" s="1">
         <v>28755</v>
       </c>
-      <c r="L128" s="8">
+      <c r="L128" s="6">
         <v>123809</v>
       </c>
       <c r="M128">
@@ -7200,7 +7196,7 @@
         <f t="shared" si="1"/>
         <v>1492</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F129" s="5">
         <v>1250</v>
       </c>
       <c r="G129">
@@ -7218,7 +7214,7 @@
       <c r="K129" s="1">
         <v>20999</v>
       </c>
-      <c r="L129" s="8">
+      <c r="L129" s="6">
         <v>89113</v>
       </c>
       <c r="M129">
@@ -7248,7 +7244,7 @@
         <f t="shared" si="1"/>
         <v>1302</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F130" s="5">
         <v>1130</v>
       </c>
       <c r="G130">
@@ -7266,7 +7262,7 @@
       <c r="K130" s="1">
         <v>14098</v>
       </c>
-      <c r="L130" s="8">
+      <c r="L130" s="6">
         <v>73784</v>
       </c>
       <c r="M130">
@@ -7296,7 +7292,7 @@
         <f t="shared" ref="E131:E194" si="2">AVERAGE(F131:J131)</f>
         <v>1276</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F131" s="5">
         <v>1090</v>
       </c>
       <c r="G131">
@@ -7314,7 +7310,7 @@
       <c r="K131" s="1">
         <v>53770</v>
       </c>
-      <c r="L131" s="8">
+      <c r="L131" s="6">
         <v>67130</v>
       </c>
       <c r="M131">
@@ -7335,16 +7331,16 @@
         <v>90731</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C132" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E132">
         <f t="shared" si="2"/>
         <v>1300</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F132" s="5">
         <v>1110</v>
       </c>
       <c r="G132">
@@ -7362,7 +7358,7 @@
       <c r="K132" s="1">
         <v>61270</v>
       </c>
-      <c r="L132" s="8">
+      <c r="L132" s="6">
         <v>69019</v>
       </c>
       <c r="N132">
@@ -7380,16 +7376,16 @@
         <v>90732</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E133">
         <f t="shared" si="2"/>
         <v>1908</v>
       </c>
-      <c r="F133" s="6">
+      <c r="F133" s="5">
         <v>1620</v>
       </c>
       <c r="G133">
@@ -7407,7 +7403,7 @@
       <c r="K133" s="1">
         <v>21397</v>
       </c>
-      <c r="L133" s="8">
+      <c r="L133" s="6">
         <v>115120</v>
       </c>
       <c r="N133">
@@ -7425,10 +7421,10 @@
         <v>90740</v>
       </c>
       <c r="B134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E134">
         <f t="shared" si="2"/>
@@ -7449,7 +7445,7 @@
       <c r="K134" s="1">
         <v>24769</v>
       </c>
-      <c r="L134" s="8">
+      <c r="L134" s="6">
         <v>75007</v>
       </c>
       <c r="M134">
@@ -7470,16 +7466,16 @@
         <v>90744</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C135" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E135">
         <f t="shared" si="2"/>
         <v>1156</v>
       </c>
-      <c r="F135" s="6">
+      <c r="F135" s="5">
         <v>1020</v>
       </c>
       <c r="G135">
@@ -7497,7 +7493,7 @@
       <c r="K135" s="1">
         <v>53074</v>
       </c>
-      <c r="L135" s="8">
+      <c r="L135" s="6">
         <v>58869</v>
       </c>
       <c r="N135">
@@ -7524,7 +7520,7 @@
         <f t="shared" si="2"/>
         <v>1346</v>
       </c>
-      <c r="F136" s="6">
+      <c r="F136" s="5">
         <v>1160</v>
       </c>
       <c r="G136">
@@ -7542,7 +7538,7 @@
       <c r="K136" s="1">
         <v>59937</v>
       </c>
-      <c r="L136" s="8">
+      <c r="L136" s="6">
         <v>103471</v>
       </c>
       <c r="M136">
@@ -7572,7 +7568,7 @@
         <f t="shared" si="2"/>
         <v>1678</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F137" s="5">
         <v>1500</v>
       </c>
       <c r="G137">
@@ -7590,7 +7586,7 @@
       <c r="K137" s="1">
         <v>27147</v>
       </c>
-      <c r="L137" s="8">
+      <c r="L137" s="6">
         <v>109596</v>
       </c>
       <c r="M137">
@@ -7620,7 +7616,7 @@
         <f t="shared" si="2"/>
         <v>1418</v>
       </c>
-      <c r="F138" s="6">
+      <c r="F138" s="5">
         <v>1230</v>
       </c>
       <c r="G138">
@@ -7638,7 +7634,7 @@
       <c r="K138" s="1">
         <v>41686</v>
       </c>
-      <c r="L138" s="8">
+      <c r="L138" s="6">
         <v>69613</v>
       </c>
       <c r="M138">
@@ -7659,7 +7655,7 @@
         <v>90803</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
@@ -7668,7 +7664,7 @@
         <f t="shared" si="2"/>
         <v>1782</v>
       </c>
-      <c r="F139" s="6">
+      <c r="F139" s="5">
         <v>1530</v>
       </c>
       <c r="G139">
@@ -7686,7 +7682,7 @@
       <c r="K139" s="1">
         <v>32192</v>
       </c>
-      <c r="L139" s="8">
+      <c r="L139" s="6">
         <v>107889</v>
       </c>
       <c r="M139">
@@ -7707,16 +7703,16 @@
         <v>90804</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E140">
         <f t="shared" si="2"/>
         <v>1264</v>
       </c>
-      <c r="F140" s="6">
+      <c r="F140" s="5">
         <v>1090</v>
       </c>
       <c r="G140">
@@ -7734,7 +7730,7 @@
       <c r="K140" s="1">
         <v>39370</v>
       </c>
-      <c r="L140" s="8">
+      <c r="L140" s="6">
         <v>64160</v>
       </c>
       <c r="M140">
@@ -7755,7 +7751,7 @@
         <v>90805</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -7764,7 +7760,7 @@
         <f t="shared" si="2"/>
         <v>1186</v>
       </c>
-      <c r="F141" s="6">
+      <c r="F141" s="5">
         <v>1030</v>
       </c>
       <c r="G141">
@@ -7782,7 +7778,7 @@
       <c r="K141" s="1">
         <v>95350</v>
       </c>
-      <c r="L141" s="8">
+      <c r="L141" s="6">
         <v>64848</v>
       </c>
       <c r="M141">
@@ -7812,7 +7808,7 @@
         <f t="shared" si="2"/>
         <v>1196</v>
       </c>
-      <c r="F142" s="6">
+      <c r="F142" s="5">
         <v>1050</v>
       </c>
       <c r="G142">
@@ -7830,7 +7826,7 @@
       <c r="K142" s="1">
         <v>41611</v>
       </c>
-      <c r="L142" s="8">
+      <c r="L142" s="6">
         <v>67632</v>
       </c>
       <c r="M142">
@@ -7851,7 +7847,7 @@
         <v>90807</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>29</v>
@@ -7861,7 +7857,7 @@
         <f t="shared" si="2"/>
         <v>1426</v>
       </c>
-      <c r="F143" s="6">
+      <c r="F143" s="5">
         <v>1240</v>
       </c>
       <c r="G143">
@@ -7879,7 +7875,7 @@
       <c r="K143" s="1">
         <v>32412</v>
       </c>
-      <c r="L143" s="8">
+      <c r="L143" s="6">
         <v>89319</v>
       </c>
       <c r="M143">
@@ -7909,7 +7905,7 @@
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="F144" s="6">
+      <c r="F144" s="5">
         <v>1370</v>
       </c>
       <c r="G144">
@@ -7927,7 +7923,7 @@
       <c r="K144" s="1">
         <v>39747</v>
       </c>
-      <c r="L144" s="8">
+      <c r="L144" s="6">
         <v>131535</v>
       </c>
       <c r="M144">
@@ -7958,7 +7954,7 @@
         <f t="shared" si="2"/>
         <v>1152</v>
       </c>
-      <c r="F145" s="6">
+      <c r="F145" s="5">
         <v>990</v>
       </c>
       <c r="G145">
@@ -7976,7 +7972,7 @@
       <c r="K145" s="1">
         <v>38529</v>
       </c>
-      <c r="L145" s="8">
+      <c r="L145" s="6">
         <v>75152</v>
       </c>
       <c r="M145">
@@ -8006,7 +8002,7 @@
         <f t="shared" si="2"/>
         <v>1156</v>
       </c>
-      <c r="F146" s="6">
+      <c r="F146" s="5">
         <v>1010</v>
       </c>
       <c r="G146">
@@ -8024,7 +8020,7 @@
       <c r="K146" s="1">
         <v>54565</v>
       </c>
-      <c r="L146" s="8">
+      <c r="L146" s="6">
         <v>48535</v>
       </c>
       <c r="M146">
@@ -8054,7 +8050,7 @@
         <f t="shared" si="2"/>
         <v>1438</v>
       </c>
-      <c r="F147" s="6">
+      <c r="F147" s="5">
         <v>1230</v>
       </c>
       <c r="G147">
@@ -8072,7 +8068,7 @@
       <c r="K147" s="1">
         <v>19042</v>
       </c>
-      <c r="L147" s="8">
+      <c r="L147" s="6">
         <v>89776</v>
       </c>
       <c r="M147">
@@ -8102,7 +8098,7 @@
         <f t="shared" si="2"/>
         <v>1638</v>
       </c>
-      <c r="F148" s="6">
+      <c r="F148" s="5">
         <v>1420</v>
       </c>
       <c r="G148">
@@ -8120,7 +8116,7 @@
       <c r="K148" s="1">
         <v>41837</v>
       </c>
-      <c r="L148" s="8">
+      <c r="L148" s="6">
         <v>110565</v>
       </c>
       <c r="M148">
@@ -8150,7 +8146,7 @@
         <f t="shared" si="2"/>
         <v>1638</v>
       </c>
-      <c r="F149" s="6">
+      <c r="F149" s="5">
         <v>1430</v>
       </c>
       <c r="G149">
@@ -8168,7 +8164,7 @@
       <c r="K149" s="1">
         <v>31949</v>
       </c>
-      <c r="L149" s="8">
+      <c r="L149" s="6">
         <v>123358</v>
       </c>
       <c r="M149">
@@ -8198,7 +8194,7 @@
         <f t="shared" si="2"/>
         <v>1436</v>
       </c>
-      <c r="F150" s="6">
+      <c r="F150" s="5">
         <v>1270</v>
       </c>
       <c r="G150">
@@ -8216,7 +8212,7 @@
       <c r="K150" s="1">
         <v>33804</v>
       </c>
-      <c r="L150" s="8">
+      <c r="L150" s="6">
         <v>93128</v>
       </c>
       <c r="M150">
@@ -8246,7 +8242,7 @@
         <f t="shared" si="2"/>
         <v>1414</v>
       </c>
-      <c r="F151" s="6">
+      <c r="F151" s="5">
         <v>1200</v>
       </c>
       <c r="G151">
@@ -8264,7 +8260,7 @@
       <c r="K151" s="1">
         <v>1010</v>
       </c>
-      <c r="L151" s="8">
+      <c r="L151" s="6">
         <v>139167</v>
       </c>
       <c r="M151">
@@ -8285,17 +8281,17 @@
         <v>91010</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152">
         <f t="shared" si="2"/>
         <v>1480</v>
       </c>
-      <c r="F152" s="6">
+      <c r="F152" s="5">
         <v>1300</v>
       </c>
       <c r="G152">
@@ -8313,7 +8309,7 @@
       <c r="K152" s="1">
         <v>26730</v>
       </c>
-      <c r="L152" s="8">
+      <c r="L152" s="6">
         <v>95172</v>
       </c>
       <c r="M152">
@@ -8343,7 +8339,7 @@
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="F153" s="6">
+      <c r="F153" s="5">
         <v>1740</v>
       </c>
       <c r="G153">
@@ -8361,7 +8357,7 @@
       <c r="K153" s="1">
         <v>20588</v>
       </c>
-      <c r="L153" s="8">
+      <c r="L153" s="6">
         <v>210532</v>
       </c>
       <c r="M153">
@@ -8391,7 +8387,7 @@
         <f t="shared" si="2"/>
         <v>1406</v>
       </c>
-      <c r="F154" s="6">
+      <c r="F154" s="5">
         <v>1260</v>
       </c>
       <c r="G154">
@@ -8409,7 +8405,7 @@
       <c r="K154" s="1">
         <v>41852</v>
       </c>
-      <c r="L154" s="8">
+      <c r="L154" s="6">
         <v>95606</v>
       </c>
       <c r="M154">
@@ -8439,7 +8435,7 @@
         <f t="shared" si="2"/>
         <v>1478</v>
       </c>
-      <c r="F155" s="6">
+      <c r="F155" s="5">
         <v>1250</v>
       </c>
       <c r="G155">
@@ -8457,7 +8453,7 @@
       <c r="K155" s="1">
         <v>8439</v>
       </c>
-      <c r="L155" s="8">
+      <c r="L155" s="6">
         <v>61771</v>
       </c>
       <c r="M155">
@@ -8487,7 +8483,7 @@
         <f t="shared" si="2"/>
         <v>1596</v>
       </c>
-      <c r="F156" s="6">
+      <c r="F156" s="5">
         <v>1350</v>
       </c>
       <c r="G156">
@@ -8505,7 +8501,7 @@
       <c r="K156" s="1">
         <v>26927</v>
       </c>
-      <c r="L156" s="8">
+      <c r="L156" s="6">
         <v>127882</v>
       </c>
       <c r="M156">
@@ -8526,16 +8522,16 @@
         <v>91040</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C157" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E157">
         <f t="shared" si="2"/>
         <v>1378</v>
       </c>
-      <c r="F157" s="6">
+      <c r="F157" s="5">
         <v>1180</v>
       </c>
       <c r="G157">
@@ -8553,7 +8549,7 @@
       <c r="K157" s="1">
         <v>21588</v>
       </c>
-      <c r="L157" s="8">
+      <c r="L157" s="6">
         <v>103823</v>
       </c>
       <c r="N157">
@@ -8571,16 +8567,16 @@
         <v>91042</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C158" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E158">
         <f t="shared" si="2"/>
         <v>1306</v>
       </c>
-      <c r="F158" s="6">
+      <c r="F158" s="5">
         <v>1120</v>
       </c>
       <c r="G158">
@@ -8598,7 +8594,7 @@
       <c r="K158" s="1">
         <v>28036</v>
       </c>
-      <c r="L158" s="8">
+      <c r="L158" s="6">
         <v>81324</v>
       </c>
       <c r="N158">
@@ -8625,7 +8621,7 @@
         <f t="shared" si="2"/>
         <v>1768</v>
       </c>
-      <c r="F159" s="6">
+      <c r="F159" s="5">
         <v>1480</v>
       </c>
       <c r="G159">
@@ -8643,7 +8639,7 @@
       <c r="K159" s="1">
         <v>20583</v>
       </c>
-      <c r="L159" s="8">
+      <c r="L159" s="6">
         <v>86631</v>
       </c>
       <c r="M159">
@@ -8673,7 +8669,7 @@
         <f t="shared" si="2"/>
         <v>1284</v>
       </c>
-      <c r="F160" s="6">
+      <c r="F160" s="5">
         <v>1150</v>
       </c>
       <c r="G160">
@@ -8691,7 +8687,7 @@
       <c r="K160" s="1">
         <v>26887</v>
       </c>
-      <c r="L160" s="8">
+      <c r="L160" s="6">
         <v>78513</v>
       </c>
       <c r="M160">
@@ -8721,7 +8717,7 @@
         <f t="shared" si="2"/>
         <v>1416</v>
       </c>
-      <c r="F161" s="6">
+      <c r="F161" s="5">
         <v>1220</v>
       </c>
       <c r="G161">
@@ -8739,7 +8735,7 @@
       <c r="K161" s="1">
         <v>34707</v>
       </c>
-      <c r="L161" s="8">
+      <c r="L161" s="6">
         <v>93856</v>
       </c>
       <c r="M161">
@@ -8769,7 +8765,7 @@
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="F162" s="6">
+      <c r="F162" s="5">
         <v>1740</v>
       </c>
       <c r="G162">
@@ -8787,7 +8783,7 @@
       <c r="K162" s="1">
         <v>13869</v>
       </c>
-      <c r="L162" s="8">
+      <c r="L162" s="6">
         <v>163253</v>
       </c>
       <c r="M162">
@@ -8817,7 +8813,7 @@
         <f t="shared" si="2"/>
         <v>1632</v>
       </c>
-      <c r="F163" s="6">
+      <c r="F163" s="5">
         <v>1440</v>
       </c>
       <c r="G163">
@@ -8835,7 +8831,7 @@
       <c r="K163" s="1">
         <v>24172</v>
       </c>
-      <c r="L163" s="8">
+      <c r="L163" s="6">
         <v>91220</v>
       </c>
       <c r="M163">
@@ -8865,7 +8861,7 @@
         <f t="shared" si="2"/>
         <v>1556</v>
       </c>
-      <c r="F164" s="6">
+      <c r="F164" s="5">
         <v>1310</v>
       </c>
       <c r="G164">
@@ -8883,7 +8879,7 @@
       <c r="K164" s="1">
         <v>33729</v>
       </c>
-      <c r="L164" s="8">
+      <c r="L164" s="6">
         <v>120822</v>
       </c>
       <c r="M164">
@@ -8913,7 +8909,7 @@
         <f t="shared" si="2"/>
         <v>1546</v>
       </c>
-      <c r="F165" s="6">
+      <c r="F165" s="5">
         <v>1440</v>
       </c>
       <c r="G165">
@@ -8931,7 +8927,7 @@
       <c r="K165" s="1">
         <v>12777</v>
       </c>
-      <c r="L165" s="8">
+      <c r="L165" s="6">
         <v>173312</v>
       </c>
       <c r="M165">
@@ -8961,7 +8957,7 @@
         <f t="shared" si="2"/>
         <v>1540</v>
       </c>
-      <c r="F166" s="6">
+      <c r="F166" s="5">
         <v>1350</v>
       </c>
       <c r="G166">
@@ -8979,7 +8975,7 @@
       <c r="K166" s="1">
         <v>22608</v>
       </c>
-      <c r="L166" s="8">
+      <c r="L166" s="6">
         <v>67102</v>
       </c>
       <c r="M166">
@@ -9009,7 +9005,7 @@
         <f t="shared" si="2"/>
         <v>1582</v>
       </c>
-      <c r="F167" s="6">
+      <c r="F167" s="5">
         <v>1380</v>
       </c>
       <c r="G167">
@@ -9027,7 +9023,7 @@
       <c r="K167" s="1">
         <v>22875</v>
       </c>
-      <c r="L167" s="8">
+      <c r="L167" s="6">
         <v>90232</v>
       </c>
       <c r="M167">
@@ -9057,7 +9053,7 @@
         <f t="shared" si="2"/>
         <v>1514</v>
       </c>
-      <c r="F168" s="6">
+      <c r="F168" s="5">
         <v>1270</v>
       </c>
       <c r="G168">
@@ -9075,7 +9071,7 @@
       <c r="K168" s="1">
         <v>16930</v>
       </c>
-      <c r="L168" s="8">
+      <c r="L168" s="6">
         <v>70650</v>
       </c>
       <c r="M168">
@@ -9096,7 +9092,7 @@
         <v>91204</v>
       </c>
       <c r="B169" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C169" t="s">
         <v>38</v>
@@ -9105,7 +9101,7 @@
         <f t="shared" si="2"/>
         <v>1526</v>
       </c>
-      <c r="F169" s="6">
+      <c r="F169" s="5">
         <v>1300</v>
       </c>
       <c r="G169">
@@ -9123,7 +9119,7 @@
       <c r="K169" s="1">
         <v>17302</v>
       </c>
-      <c r="L169" s="8">
+      <c r="L169" s="6">
         <v>69102</v>
       </c>
       <c r="M169">
@@ -9144,7 +9140,7 @@
         <v>91205</v>
       </c>
       <c r="B170" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C170" t="s">
         <v>38</v>
@@ -9153,7 +9149,7 @@
         <f t="shared" si="2"/>
         <v>1480</v>
       </c>
-      <c r="F170" s="6">
+      <c r="F170" s="5">
         <v>1270</v>
       </c>
       <c r="G170">
@@ -9171,7 +9167,7 @@
       <c r="K170" s="1">
         <v>36693</v>
       </c>
-      <c r="L170" s="8">
+      <c r="L170" s="6">
         <v>58290</v>
       </c>
       <c r="M170">
@@ -9201,7 +9197,7 @@
         <f t="shared" si="2"/>
         <v>1568</v>
       </c>
-      <c r="F171" s="6">
+      <c r="F171" s="5">
         <v>1310</v>
       </c>
       <c r="G171">
@@ -9219,7 +9215,7 @@
       <c r="K171" s="1">
         <v>33252</v>
       </c>
-      <c r="L171" s="8">
+      <c r="L171" s="6">
         <v>85651</v>
       </c>
       <c r="M171">
@@ -9249,7 +9245,7 @@
         <f t="shared" si="2"/>
         <v>1564</v>
       </c>
-      <c r="F172" s="6">
+      <c r="F172" s="5">
         <v>1350</v>
       </c>
       <c r="G172">
@@ -9267,7 +9263,7 @@
       <c r="K172" s="1">
         <v>10369</v>
       </c>
-      <c r="L172" s="8">
+      <c r="L172" s="6">
         <v>106984</v>
       </c>
       <c r="M172">
@@ -9297,7 +9293,7 @@
         <f t="shared" si="2"/>
         <v>1710</v>
       </c>
-      <c r="F173" s="6">
+      <c r="F173" s="5">
         <v>1430</v>
       </c>
       <c r="G173">
@@ -9315,7 +9311,7 @@
       <c r="K173" s="1">
         <v>16776</v>
       </c>
-      <c r="L173" s="8">
+      <c r="L173" s="6">
         <v>112485</v>
       </c>
       <c r="M173">
@@ -9345,7 +9341,7 @@
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="F174" s="6">
+      <c r="F174" s="5">
         <v>1740</v>
       </c>
       <c r="G174">
@@ -9363,7 +9359,7 @@
       <c r="K174" s="1">
         <v>555</v>
       </c>
-      <c r="L174" s="8">
+      <c r="L174" s="6">
         <v>105536</v>
       </c>
       <c r="M174">
@@ -9384,17 +9380,17 @@
         <v>91214</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175">
         <f t="shared" si="2"/>
         <v>1748</v>
       </c>
-      <c r="F175" s="6">
+      <c r="F175" s="5">
         <v>1530</v>
       </c>
       <c r="G175">
@@ -9412,7 +9408,7 @@
       <c r="K175" s="1">
         <v>31097</v>
       </c>
-      <c r="L175" s="8">
+      <c r="L175" s="6">
         <v>126175</v>
       </c>
       <c r="M175">
@@ -9433,16 +9429,16 @@
         <v>91301</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C176" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E176">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="F176" s="6">
+      <c r="F176" s="5">
         <v>1740</v>
       </c>
       <c r="G176">
@@ -9460,7 +9456,7 @@
       <c r="K176" s="1">
         <v>24790</v>
       </c>
-      <c r="L176" s="8">
+      <c r="L176" s="6">
         <v>157582</v>
       </c>
       <c r="M176">
@@ -9487,17 +9483,17 @@
         <v>91302</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="F177" s="6">
+      <c r="F177" s="5">
         <v>1740</v>
       </c>
       <c r="G177">
@@ -9515,7 +9511,7 @@
       <c r="K177" s="1">
         <v>25468</v>
       </c>
-      <c r="L177" s="8">
+      <c r="L177" s="6">
         <v>172651</v>
       </c>
       <c r="M177">
@@ -9536,16 +9532,16 @@
         <v>91303</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C178" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E178">
         <f t="shared" si="2"/>
         <v>1442</v>
       </c>
-      <c r="F178" s="6">
+      <c r="F178" s="5">
         <v>1260</v>
       </c>
       <c r="G178">
@@ -9563,7 +9559,7 @@
       <c r="K178" s="1">
         <v>28457</v>
       </c>
-      <c r="L178" s="8">
+      <c r="L178" s="6">
         <v>77437</v>
       </c>
       <c r="N178">
@@ -9581,16 +9577,16 @@
         <v>91304</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C179" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E179">
         <f t="shared" si="2"/>
         <v>1414</v>
       </c>
-      <c r="F179" s="6">
+      <c r="F179" s="5">
         <v>1220</v>
       </c>
       <c r="G179">
@@ -9608,7 +9604,7 @@
       <c r="K179" s="1">
         <v>52386</v>
       </c>
-      <c r="L179" s="8">
+      <c r="L179" s="6">
         <v>79673</v>
       </c>
       <c r="N179">
@@ -9626,16 +9622,16 @@
         <v>91306</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C180" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E180">
         <f t="shared" si="2"/>
         <v>1316</v>
       </c>
-      <c r="F180" s="6">
+      <c r="F180" s="5">
         <v>1140</v>
       </c>
       <c r="G180">
@@ -9653,7 +9649,7 @@
       <c r="K180" s="1">
         <v>46669</v>
       </c>
-      <c r="L180" s="8">
+      <c r="L180" s="6">
         <v>82380</v>
       </c>
       <c r="N180">
@@ -9671,16 +9667,16 @@
         <v>91307</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C181" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E181">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="F181" s="6">
+      <c r="F181" s="5">
         <v>1740</v>
       </c>
       <c r="G181">
@@ -9698,7 +9694,7 @@
       <c r="K181" s="1">
         <v>24855</v>
       </c>
-      <c r="L181" s="8">
+      <c r="L181" s="6">
         <v>130877</v>
       </c>
       <c r="N181">
@@ -9716,16 +9712,16 @@
         <v>91311</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C182" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E182">
         <f t="shared" si="2"/>
         <v>1688</v>
       </c>
-      <c r="F182" s="6">
+      <c r="F182" s="5">
         <v>1460</v>
       </c>
       <c r="G182">
@@ -9743,7 +9739,7 @@
       <c r="K182" s="1">
         <v>39014</v>
       </c>
-      <c r="L182" s="8">
+      <c r="L182" s="6">
         <v>112172</v>
       </c>
       <c r="N182">
@@ -9761,16 +9757,16 @@
         <v>91316</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C183" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E183">
         <f t="shared" si="2"/>
         <v>1668</v>
       </c>
-      <c r="F183" s="6">
+      <c r="F183" s="5">
         <v>1490</v>
       </c>
       <c r="G183">
@@ -9788,7 +9784,7 @@
       <c r="K183" s="1">
         <v>28777</v>
       </c>
-      <c r="L183" s="8">
+      <c r="L183" s="6">
         <v>85354</v>
       </c>
       <c r="N183">
@@ -9806,16 +9802,16 @@
         <v>91321</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C184" t="s">
         <v>163</v>
-      </c>
-      <c r="C184" t="s">
-        <v>164</v>
       </c>
       <c r="E184">
         <f t="shared" si="2"/>
         <v>1432</v>
       </c>
-      <c r="F184" s="6">
+      <c r="F184" s="5">
         <v>1250</v>
       </c>
       <c r="G184">
@@ -9833,7 +9829,7 @@
       <c r="K184" s="1">
         <v>33560</v>
       </c>
-      <c r="L184" s="8">
+      <c r="L184" s="6">
         <v>84503</v>
       </c>
       <c r="M184">
@@ -9854,16 +9850,16 @@
         <v>91324</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C185" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E185">
         <f t="shared" si="2"/>
         <v>1524</v>
       </c>
-      <c r="F185" s="6">
+      <c r="F185" s="5">
         <v>1340</v>
       </c>
       <c r="G185">
@@ -9881,7 +9877,7 @@
       <c r="K185" s="1">
         <v>29500</v>
       </c>
-      <c r="L185" s="8">
+      <c r="L185" s="6">
         <v>100086</v>
       </c>
       <c r="N185">
@@ -9899,16 +9895,16 @@
         <v>91325</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C186" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E186">
         <f t="shared" si="2"/>
         <v>1478</v>
       </c>
-      <c r="F186" s="6">
+      <c r="F186" s="5">
         <v>1290</v>
       </c>
       <c r="G186">
@@ -9926,7 +9922,7 @@
       <c r="K186" s="1">
         <v>35250</v>
       </c>
-      <c r="L186" s="8">
+      <c r="L186" s="6">
         <v>83853</v>
       </c>
       <c r="N186">
@@ -9944,16 +9940,16 @@
         <v>91326</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E187">
         <f t="shared" si="2"/>
         <v>1864</v>
       </c>
-      <c r="F187" s="6">
+      <c r="F187" s="5">
         <v>1690</v>
       </c>
       <c r="G187">
@@ -9971,7 +9967,7 @@
       <c r="K187" s="1">
         <v>38041</v>
       </c>
-      <c r="L187" s="8">
+      <c r="L187" s="6">
         <v>142170</v>
       </c>
       <c r="N187">
@@ -9989,16 +9985,16 @@
         <v>91331</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C188" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E188">
         <f t="shared" si="2"/>
         <v>1272</v>
       </c>
-      <c r="F188" s="6">
+      <c r="F188" s="5">
         <v>1130</v>
       </c>
       <c r="G188">
@@ -10016,7 +10012,7 @@
       <c r="K188" s="1">
         <v>100720</v>
       </c>
-      <c r="L188" s="8">
+      <c r="L188" s="6">
         <v>76942</v>
       </c>
       <c r="M188">
@@ -10037,16 +10033,16 @@
         <v>91335</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C189" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E189">
         <f t="shared" si="2"/>
         <v>1423.2</v>
       </c>
-      <c r="F189" s="6">
+      <c r="F189" s="5">
         <v>1116</v>
       </c>
       <c r="G189">
@@ -10064,7 +10060,7 @@
       <c r="K189" s="1">
         <v>76650</v>
       </c>
-      <c r="L189" s="8">
+      <c r="L189" s="6">
         <v>74632</v>
       </c>
       <c r="N189">
@@ -10082,17 +10078,16 @@
         <v>91340</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C190" t="s">
-        <v>76</v>
-      </c>
-      <c r="D190" s="3"/>
+        <v>75</v>
+      </c>
       <c r="E190">
         <f t="shared" si="2"/>
         <v>1267.5999999999999</v>
       </c>
-      <c r="F190" s="6">
+      <c r="F190" s="5">
         <v>1008</v>
       </c>
       <c r="G190">
@@ -10110,7 +10105,7 @@
       <c r="K190" s="1">
         <v>34610</v>
       </c>
-      <c r="L190" s="8">
+      <c r="L190" s="6">
         <v>71664</v>
       </c>
       <c r="N190">
@@ -10128,16 +10123,16 @@
         <v>91342</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C191" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E191">
         <f t="shared" si="2"/>
         <v>1314.8</v>
       </c>
-      <c r="F191" s="6">
+      <c r="F191" s="5">
         <v>1044</v>
       </c>
       <c r="G191">
@@ -10155,7 +10150,7 @@
       <c r="K191" s="1">
         <v>96429</v>
       </c>
-      <c r="L191" s="8">
+      <c r="L191" s="6">
         <v>89264</v>
       </c>
       <c r="N191">
@@ -10173,16 +10168,16 @@
         <v>91343</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C192" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E192">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="F192" s="6">
+      <c r="F192" s="5">
         <v>990</v>
       </c>
       <c r="G192">
@@ -10200,7 +10195,7 @@
       <c r="K192" s="1">
         <v>62595</v>
       </c>
-      <c r="L192" s="8">
+      <c r="L192" s="6">
         <v>77790</v>
       </c>
       <c r="N192">
@@ -10218,16 +10213,16 @@
         <v>91344</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C193" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E193">
         <f t="shared" si="2"/>
         <v>1673.6</v>
       </c>
-      <c r="F193" s="6">
+      <c r="F193" s="5">
         <v>1368</v>
       </c>
       <c r="G193">
@@ -10245,7 +10240,7 @@
       <c r="K193" s="1">
         <v>52481</v>
       </c>
-      <c r="L193" s="8">
+      <c r="L193" s="6">
         <v>111897</v>
       </c>
       <c r="N193">
@@ -10263,16 +10258,16 @@
         <v>91345</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C194" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E194">
         <f t="shared" si="2"/>
         <v>1534.2</v>
       </c>
-      <c r="F194" s="6">
+      <c r="F194" s="5">
         <v>1161</v>
       </c>
       <c r="G194">
@@ -10290,7 +10285,7 @@
       <c r="K194" s="1">
         <v>18895</v>
       </c>
-      <c r="L194" s="8">
+      <c r="L194" s="6">
         <v>93622</v>
       </c>
       <c r="N194">
@@ -10308,17 +10303,17 @@
         <v>91350</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195">
         <f t="shared" ref="E195:E258" si="3">AVERAGE(F195:J195)</f>
         <v>1782.4</v>
       </c>
-      <c r="F195" s="6">
+      <c r="F195" s="5">
         <v>1422</v>
       </c>
       <c r="G195">
@@ -10336,7 +10331,7 @@
       <c r="K195" s="1">
         <v>41514</v>
       </c>
-      <c r="L195" s="8">
+      <c r="L195" s="6">
         <v>137626</v>
       </c>
       <c r="M195">
@@ -10357,16 +10352,17 @@
         <v>91351</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D196" s="3"/>
       <c r="E196">
         <f t="shared" si="3"/>
         <v>1554.6</v>
       </c>
-      <c r="F196" s="6">
+      <c r="F196" s="5">
         <v>1233</v>
       </c>
       <c r="G196">
@@ -10384,7 +10380,7 @@
       <c r="K196" s="1">
         <v>34684</v>
       </c>
-      <c r="L196" s="8">
+      <c r="L196" s="6">
         <v>104214</v>
       </c>
       <c r="M196">
@@ -10405,16 +10401,16 @@
         <v>91352</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C197" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E197">
         <f t="shared" si="3"/>
         <v>1261.8</v>
       </c>
-      <c r="F197" s="6">
+      <c r="F197" s="5">
         <v>999</v>
       </c>
       <c r="G197">
@@ -10432,7 +10428,7 @@
       <c r="K197" s="1">
         <v>47274</v>
       </c>
-      <c r="L197" s="8">
+      <c r="L197" s="6">
         <v>68132</v>
       </c>
       <c r="N197">
@@ -10458,16 +10454,17 @@
         <v>91354</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D198" s="3"/>
       <c r="E198">
         <f t="shared" si="3"/>
         <v>1983.2</v>
       </c>
-      <c r="F198" s="6">
+      <c r="F198" s="5">
         <v>1566</v>
       </c>
       <c r="G198">
@@ -10485,7 +10482,7 @@
       <c r="K198" s="1">
         <v>33962</v>
       </c>
-      <c r="L198" s="8">
+      <c r="L198" s="6">
         <v>145442</v>
       </c>
       <c r="M198">
@@ -10506,16 +10503,17 @@
         <v>91355</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D199" s="3"/>
       <c r="E199">
         <f t="shared" si="3"/>
         <v>1834</v>
       </c>
-      <c r="F199" s="6">
+      <c r="F199" s="5">
         <v>1440</v>
       </c>
       <c r="G199">
@@ -10533,7 +10531,7 @@
       <c r="K199" s="1">
         <v>32886</v>
       </c>
-      <c r="L199" s="8">
+      <c r="L199" s="6">
         <v>109752</v>
       </c>
       <c r="M199">
@@ -10554,16 +10552,16 @@
         <v>91356</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C200" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E200">
         <f t="shared" si="3"/>
         <v>1524.4</v>
       </c>
-      <c r="F200" s="6">
+      <c r="F200" s="5">
         <v>1242</v>
       </c>
       <c r="G200">
@@ -10581,7 +10579,7 @@
       <c r="K200" s="1">
         <v>30664</v>
       </c>
-      <c r="L200" s="8">
+      <c r="L200" s="6">
         <v>105513</v>
       </c>
       <c r="N200">
@@ -10608,7 +10606,7 @@
         <f t="shared" si="3"/>
         <v>1819</v>
       </c>
-      <c r="F201" s="6">
+      <c r="F201" s="5">
         <v>1395</v>
       </c>
       <c r="G201">
@@ -10626,7 +10624,7 @@
       <c r="K201" s="1">
         <v>20262</v>
       </c>
-      <c r="L201" s="8">
+      <c r="L201" s="6">
         <v>127304</v>
       </c>
       <c r="M201">
@@ -10656,7 +10654,7 @@
         <f t="shared" si="3"/>
         <v>1649.2</v>
       </c>
-      <c r="F202" s="6">
+      <c r="F202" s="5">
         <v>1296</v>
       </c>
       <c r="G202">
@@ -10674,7 +10672,7 @@
       <c r="K202" s="1">
         <v>35803</v>
       </c>
-      <c r="L202" s="8">
+      <c r="L202" s="6">
         <v>135998</v>
       </c>
       <c r="M202">
@@ -10695,16 +10693,16 @@
         <v>91364</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C203" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E203">
         <f t="shared" si="3"/>
         <v>1983.2</v>
       </c>
-      <c r="F203" s="6">
+      <c r="F203" s="5">
         <v>1566</v>
       </c>
       <c r="G203">
@@ -10722,7 +10720,7 @@
       <c r="K203" s="1">
         <v>27071</v>
       </c>
-      <c r="L203" s="8">
+      <c r="L203" s="6">
         <v>128306</v>
       </c>
       <c r="N203">
@@ -10740,16 +10738,16 @@
         <v>91367</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C204" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E204">
         <f t="shared" si="3"/>
         <v>2016</v>
       </c>
-      <c r="F204" s="6">
+      <c r="F204" s="5">
         <v>1730</v>
       </c>
       <c r="G204">
@@ -10767,7 +10765,7 @@
       <c r="K204" s="1">
         <v>46498</v>
       </c>
-      <c r="L204" s="8">
+      <c r="L204" s="6">
         <v>106355</v>
       </c>
       <c r="N204">
@@ -10785,16 +10783,16 @@
         <v>91387</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C205" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E205">
         <f t="shared" si="3"/>
         <v>1608</v>
       </c>
-      <c r="F205" s="6">
+      <c r="F205" s="5">
         <v>1410</v>
       </c>
       <c r="G205">
@@ -10812,7 +10810,7 @@
       <c r="K205" s="1">
         <v>45749</v>
       </c>
-      <c r="L205" s="8">
+      <c r="L205" s="6">
         <v>111090</v>
       </c>
       <c r="M205">
@@ -10833,17 +10831,16 @@
         <v>91390</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C206" t="s">
-        <v>164</v>
-      </c>
-      <c r="D206" s="3"/>
+        <v>163</v>
+      </c>
       <c r="E206">
         <f t="shared" si="3"/>
         <v>1930</v>
       </c>
-      <c r="F206" s="6">
+      <c r="F206" s="5">
         <v>1540</v>
       </c>
       <c r="G206">
@@ -10861,7 +10858,7 @@
       <c r="K206" s="1">
         <v>20128</v>
       </c>
-      <c r="L206" s="8">
+      <c r="L206" s="6">
         <v>145465</v>
       </c>
       <c r="M206">
@@ -10882,16 +10879,16 @@
         <v>91401</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C207" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E207">
         <f t="shared" si="3"/>
         <v>1384</v>
       </c>
-      <c r="F207" s="6">
+      <c r="F207" s="5">
         <v>1200</v>
       </c>
       <c r="G207">
@@ -10909,7 +10906,7 @@
       <c r="K207" s="1">
         <v>39621</v>
       </c>
-      <c r="L207" s="8">
+      <c r="L207" s="6">
         <v>72476</v>
       </c>
       <c r="N207">
@@ -10927,16 +10924,16 @@
         <v>91402</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C208" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E208">
         <f t="shared" si="3"/>
         <v>1312</v>
       </c>
-      <c r="F208" s="6">
+      <c r="F208" s="5">
         <v>1130</v>
       </c>
       <c r="G208">
@@ -10954,7 +10951,7 @@
       <c r="K208" s="1">
         <v>70140</v>
       </c>
-      <c r="L208" s="8">
+      <c r="L208" s="6">
         <v>55130</v>
       </c>
       <c r="N208">
@@ -10972,16 +10969,16 @@
         <v>91403</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C209" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E209">
         <f t="shared" si="3"/>
         <v>1794</v>
       </c>
-      <c r="F209" s="6">
+      <c r="F209" s="5">
         <v>1550</v>
       </c>
       <c r="G209">
@@ -10999,7 +10996,7 @@
       <c r="K209" s="1">
         <v>25329</v>
       </c>
-      <c r="L209" s="8">
+      <c r="L209" s="6">
         <v>107970</v>
       </c>
       <c r="N209">
@@ -11017,16 +11014,16 @@
         <v>91405</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C210" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E210">
         <f t="shared" si="3"/>
         <v>1340</v>
       </c>
-      <c r="F210" s="6">
+      <c r="F210" s="5">
         <v>1160</v>
       </c>
       <c r="G210">
@@ -11044,7 +11041,7 @@
       <c r="K210" s="1">
         <v>55319</v>
       </c>
-      <c r="L210" s="8">
+      <c r="L210" s="6">
         <v>58365</v>
       </c>
       <c r="N210">
@@ -11062,16 +11059,16 @@
         <v>91406</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C211" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E211">
         <f t="shared" si="3"/>
         <v>1358</v>
       </c>
-      <c r="F211" s="6">
+      <c r="F211" s="5">
         <v>1170</v>
       </c>
       <c r="G211">
@@ -11089,7 +11086,7 @@
       <c r="K211" s="1">
         <v>53252</v>
       </c>
-      <c r="L211" s="8">
+      <c r="L211" s="6">
         <v>71819</v>
       </c>
       <c r="N211">
@@ -11107,16 +11104,16 @@
         <v>91411</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C212" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E212">
         <f t="shared" si="3"/>
         <v>1454</v>
       </c>
-      <c r="F212" s="6">
+      <c r="F212" s="5">
         <v>1250</v>
       </c>
       <c r="G212">
@@ -11134,7 +11131,7 @@
       <c r="K212" s="1">
         <v>24984</v>
       </c>
-      <c r="L212" s="8">
+      <c r="L212" s="6">
         <v>73669</v>
       </c>
       <c r="N212">
@@ -11152,16 +11149,16 @@
         <v>91423</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C213" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E213">
         <f t="shared" si="3"/>
         <v>1738</v>
       </c>
-      <c r="F213" s="6">
+      <c r="F213" s="5">
         <v>1510</v>
       </c>
       <c r="G213">
@@ -11179,7 +11176,7 @@
       <c r="K213" s="1">
         <v>32635</v>
       </c>
-      <c r="L213" s="8">
+      <c r="L213" s="6">
         <v>104205</v>
       </c>
       <c r="N213">
@@ -11197,16 +11194,16 @@
         <v>91436</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C214" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E214">
         <f t="shared" si="3"/>
         <v>2018</v>
       </c>
-      <c r="F214" s="6">
+      <c r="F214" s="5">
         <v>1740</v>
       </c>
       <c r="G214">
@@ -11224,7 +11221,7 @@
       <c r="K214" s="1">
         <v>15189</v>
       </c>
-      <c r="L214" s="8">
+      <c r="L214" s="6">
         <v>155346</v>
       </c>
       <c r="N214">
@@ -11251,7 +11248,7 @@
         <f t="shared" si="3"/>
         <v>1602</v>
       </c>
-      <c r="F215" s="6">
+      <c r="F215" s="5">
         <v>1400</v>
       </c>
       <c r="G215">
@@ -11269,7 +11266,7 @@
       <c r="K215" s="1">
         <v>21157</v>
       </c>
-      <c r="L215" s="8">
+      <c r="L215" s="6">
         <v>80198</v>
       </c>
       <c r="M215">
@@ -11299,7 +11296,7 @@
         <f t="shared" si="3"/>
         <v>1510</v>
       </c>
-      <c r="F216" s="6">
+      <c r="F216" s="5">
         <v>1380</v>
       </c>
       <c r="G216">
@@ -11317,7 +11314,7 @@
       <c r="K216" s="1">
         <v>11665</v>
       </c>
-      <c r="L216" s="8">
+      <c r="L216" s="6">
         <v>59711</v>
       </c>
       <c r="M216">
@@ -11347,7 +11344,7 @@
         <f t="shared" si="3"/>
         <v>1638</v>
       </c>
-      <c r="F217" s="6">
+      <c r="F217" s="5">
         <v>1370</v>
       </c>
       <c r="G217">
@@ -11365,7 +11362,7 @@
       <c r="K217" s="1">
         <v>26678</v>
       </c>
-      <c r="L217" s="8">
+      <c r="L217" s="6">
         <v>99318</v>
       </c>
       <c r="M217">
@@ -11395,7 +11392,7 @@
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-      <c r="F218" s="6">
+      <c r="F218" s="5">
         <v>1550</v>
       </c>
       <c r="G218">
@@ -11413,7 +11410,7 @@
       <c r="K218" s="1">
         <v>32371</v>
       </c>
-      <c r="L218" s="8">
+      <c r="L218" s="6">
         <v>104361</v>
       </c>
       <c r="M218">
@@ -11443,7 +11440,7 @@
         <f t="shared" si="3"/>
         <v>1446</v>
       </c>
-      <c r="F219" s="6">
+      <c r="F219" s="5">
         <v>1220</v>
       </c>
       <c r="G219">
@@ -11461,7 +11458,7 @@
       <c r="K219" s="1">
         <v>19338</v>
       </c>
-      <c r="L219" s="8">
+      <c r="L219" s="6">
         <v>104009</v>
       </c>
       <c r="M219">
@@ -11482,16 +11479,16 @@
         <v>91601</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C220" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E220">
         <f t="shared" si="3"/>
         <v>1514</v>
       </c>
-      <c r="F220" s="6">
+      <c r="F220" s="5">
         <v>1270</v>
       </c>
       <c r="G220">
@@ -11509,7 +11506,7 @@
       <c r="K220" s="1">
         <v>39429</v>
       </c>
-      <c r="L220" s="8">
+      <c r="L220" s="6">
         <v>73735</v>
       </c>
       <c r="N220">
@@ -11527,16 +11524,16 @@
         <v>91602</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C221" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E221">
         <f t="shared" si="3"/>
         <v>1732</v>
       </c>
-      <c r="F221" s="6">
+      <c r="F221" s="5">
         <v>1520</v>
       </c>
       <c r="G221">
@@ -11554,7 +11551,7 @@
       <c r="K221" s="1">
         <v>19647</v>
       </c>
-      <c r="L221" s="8">
+      <c r="L221" s="6">
         <v>93210</v>
       </c>
       <c r="N221">
@@ -11572,16 +11569,16 @@
         <v>91604</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C222" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E222">
         <f t="shared" si="3"/>
         <v>1858</v>
       </c>
-      <c r="F222" s="6">
+      <c r="F222" s="5">
         <v>1630</v>
       </c>
       <c r="G222">
@@ -11599,7 +11596,7 @@
       <c r="K222" s="1">
         <v>30947</v>
       </c>
-      <c r="L222" s="8">
+      <c r="L222" s="6">
         <v>132494</v>
       </c>
       <c r="N222">
@@ -11617,16 +11614,16 @@
         <v>91605</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C223" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E223">
         <f t="shared" si="3"/>
         <v>1278</v>
       </c>
-      <c r="F223" s="6">
+      <c r="F223" s="5">
         <v>1060</v>
       </c>
       <c r="G223">
@@ -11644,7 +11641,7 @@
       <c r="K223" s="1">
         <v>54341</v>
       </c>
-      <c r="L223" s="8">
+      <c r="L223" s="6">
         <v>61031</v>
       </c>
       <c r="N223">
@@ -11662,16 +11659,16 @@
         <v>91606</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C224" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E224">
         <f t="shared" si="3"/>
         <v>1302</v>
       </c>
-      <c r="F224" s="6">
+      <c r="F224" s="5">
         <v>1140</v>
       </c>
       <c r="G224">
@@ -11689,7 +11686,7 @@
       <c r="K224" s="1">
         <v>43955</v>
       </c>
-      <c r="L224" s="8">
+      <c r="L224" s="6">
         <v>64976</v>
       </c>
       <c r="N224">
@@ -11707,16 +11704,16 @@
         <v>91607</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C225" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E225">
         <f t="shared" si="3"/>
         <v>1514</v>
       </c>
-      <c r="F225" s="6">
+      <c r="F225" s="5">
         <v>1300</v>
       </c>
       <c r="G225">
@@ -11734,7 +11731,7 @@
       <c r="K225" s="1">
         <v>30502</v>
       </c>
-      <c r="L225" s="8">
+      <c r="L225" s="6">
         <v>82995</v>
       </c>
       <c r="N225">
@@ -11752,17 +11749,17 @@
         <v>91702</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226">
         <f t="shared" si="3"/>
         <v>1312</v>
       </c>
-      <c r="F226" s="6">
+      <c r="F226" s="5">
         <v>1140</v>
       </c>
       <c r="G226">
@@ -11780,7 +11777,7 @@
       <c r="K226" s="1">
         <v>62328</v>
       </c>
-      <c r="L226" s="8">
+      <c r="L226" s="6">
         <v>82382</v>
       </c>
       <c r="M226">
@@ -11801,17 +11798,17 @@
         <v>91706</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227">
         <f t="shared" si="3"/>
         <v>1258</v>
       </c>
-      <c r="F227" s="6">
+      <c r="F227" s="5">
         <v>1090</v>
       </c>
       <c r="G227">
@@ -11829,7 +11826,7 @@
       <c r="K227" s="1">
         <v>73313</v>
       </c>
-      <c r="L227" s="8">
+      <c r="L227" s="6">
         <v>76348</v>
       </c>
       <c r="M227">
@@ -11859,7 +11856,7 @@
         <f t="shared" si="3"/>
         <v>1526</v>
       </c>
-      <c r="F228" s="6">
+      <c r="F228" s="5">
         <v>1310</v>
       </c>
       <c r="G228">
@@ -11877,7 +11874,7 @@
       <c r="K228" s="1">
         <v>38122</v>
       </c>
-      <c r="L228" s="8">
+      <c r="L228" s="6">
         <v>115079</v>
       </c>
       <c r="M228">
@@ -11907,7 +11904,7 @@
         <f t="shared" si="3"/>
         <v>1426</v>
       </c>
-      <c r="F229" s="6">
+      <c r="F229" s="5">
         <v>1260</v>
       </c>
       <c r="G229">
@@ -11925,7 +11922,7 @@
       <c r="K229" s="1">
         <v>36111</v>
       </c>
-      <c r="L229" s="8">
+      <c r="L229" s="6">
         <v>95157</v>
       </c>
       <c r="M229">
@@ -11955,7 +11952,7 @@
         <f t="shared" si="3"/>
         <v>1300</v>
       </c>
-      <c r="F230" s="6">
+      <c r="F230" s="5">
         <v>1150</v>
       </c>
       <c r="G230">
@@ -11973,7 +11970,7 @@
       <c r="K230" s="1">
         <v>19653</v>
       </c>
-      <c r="L230" s="8">
+      <c r="L230" s="6">
         <v>82018</v>
       </c>
       <c r="M230">
@@ -11994,17 +11991,17 @@
         <v>91724</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D231" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="D231" s="1"/>
       <c r="E231">
         <f t="shared" si="3"/>
         <v>1558</v>
       </c>
-      <c r="F231" s="6">
+      <c r="F231" s="5">
         <v>1300</v>
       </c>
       <c r="G231">
@@ -12022,7 +12019,7 @@
       <c r="K231" s="1">
         <v>27180</v>
       </c>
-      <c r="L231" s="8">
+      <c r="L231" s="6">
         <v>96720</v>
       </c>
       <c r="M231">
@@ -12049,7 +12046,7 @@
         <f t="shared" si="3"/>
         <v>1158</v>
       </c>
-      <c r="F232" s="6">
+      <c r="F232" s="5">
         <v>1000</v>
       </c>
       <c r="G232">
@@ -12067,7 +12064,7 @@
       <c r="K232" s="1">
         <v>28197</v>
       </c>
-      <c r="L232" s="8">
+      <c r="L232" s="6">
         <v>57047</v>
       </c>
       <c r="M232">
@@ -12097,7 +12094,7 @@
         <f t="shared" si="3"/>
         <v>1192</v>
       </c>
-      <c r="F233" s="6">
+      <c r="F233" s="5">
         <v>1030</v>
       </c>
       <c r="G233">
@@ -12115,7 +12112,7 @@
       <c r="K233" s="1">
         <v>60137</v>
       </c>
-      <c r="L233" s="8">
+      <c r="L233" s="6">
         <v>62047</v>
       </c>
       <c r="M233">
@@ -12136,17 +12133,17 @@
         <v>91733</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234">
         <f t="shared" si="3"/>
         <v>1166</v>
       </c>
-      <c r="F234" s="6">
+      <c r="F234" s="5">
         <v>1010</v>
       </c>
       <c r="G234">
@@ -12164,7 +12161,7 @@
       <c r="K234" s="1">
         <v>41990</v>
       </c>
-      <c r="L234" s="8">
+      <c r="L234" s="6">
         <v>63883</v>
       </c>
       <c r="M234">
@@ -12194,7 +12191,7 @@
         <f t="shared" si="3"/>
         <v>1448</v>
       </c>
-      <c r="F235" s="6">
+      <c r="F235" s="5">
         <v>1260</v>
       </c>
       <c r="G235">
@@ -12212,7 +12209,7 @@
       <c r="K235" s="1">
         <v>26644</v>
       </c>
-      <c r="L235" s="8">
+      <c r="L235" s="6">
         <v>96433</v>
       </c>
       <c r="M235">
@@ -12242,7 +12239,7 @@
         <f t="shared" si="3"/>
         <v>1672</v>
       </c>
-      <c r="F236" s="6">
+      <c r="F236" s="5">
         <v>1470</v>
       </c>
       <c r="G236">
@@ -12260,7 +12257,7 @@
       <c r="K236" s="1">
         <v>26999</v>
       </c>
-      <c r="L236" s="8">
+      <c r="L236" s="6">
         <v>117252</v>
       </c>
       <c r="M236">
@@ -12281,17 +12278,17 @@
         <v>91744</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D237" s="3"/>
       <c r="E237">
         <f t="shared" si="3"/>
         <v>1224</v>
       </c>
-      <c r="F237" s="6">
+      <c r="F237" s="5">
         <v>1050</v>
       </c>
       <c r="G237">
@@ -12309,7 +12306,7 @@
       <c r="K237" s="1">
         <v>81817</v>
       </c>
-      <c r="L237" s="8">
+      <c r="L237" s="6">
         <v>86290</v>
       </c>
       <c r="M237">
@@ -12339,7 +12336,7 @@
         <f t="shared" si="3"/>
         <v>1432</v>
       </c>
-      <c r="F238" s="6">
+      <c r="F238" s="5">
         <v>1270</v>
       </c>
       <c r="G238">
@@ -12357,7 +12354,7 @@
       <c r="K238" s="1">
         <v>54280</v>
       </c>
-      <c r="L238" s="8">
+      <c r="L238" s="6">
         <v>101427</v>
       </c>
       <c r="M238">
@@ -12375,17 +12372,17 @@
         <v>91746</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239">
         <f t="shared" si="3"/>
         <v>1348</v>
       </c>
-      <c r="F239" s="6">
+      <c r="F239" s="5">
         <v>1230</v>
       </c>
       <c r="G239">
@@ -12403,7 +12400,7 @@
       <c r="K239" s="1">
         <v>29509</v>
       </c>
-      <c r="L239" s="8">
+      <c r="L239" s="6">
         <v>83634</v>
       </c>
       <c r="M239">
@@ -12421,17 +12418,17 @@
         <v>91748</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D240" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="D240" s="1"/>
       <c r="E240">
         <f t="shared" si="3"/>
         <v>1306</v>
       </c>
-      <c r="F240" s="6">
+      <c r="F240" s="5">
         <v>1140</v>
       </c>
       <c r="G240">
@@ -12449,7 +12446,7 @@
       <c r="K240" s="1">
         <v>44737</v>
       </c>
-      <c r="L240" s="8">
+      <c r="L240" s="6">
         <v>83610</v>
       </c>
       <c r="M240">
@@ -12479,7 +12476,7 @@
         <f t="shared" si="3"/>
         <v>1338</v>
       </c>
-      <c r="F241" s="6">
+      <c r="F241" s="5">
         <v>1170</v>
       </c>
       <c r="G241">
@@ -12497,7 +12494,7 @@
       <c r="K241" s="1">
         <v>33376</v>
       </c>
-      <c r="L241" s="8">
+      <c r="L241" s="6">
         <v>103774</v>
       </c>
       <c r="M241">
@@ -12527,7 +12524,7 @@
         <f t="shared" si="3"/>
         <v>1232</v>
       </c>
-      <c r="F242" s="6">
+      <c r="F242" s="5">
         <v>1110</v>
       </c>
       <c r="G242">
@@ -12545,7 +12542,7 @@
       <c r="K242" s="1">
         <v>33300</v>
       </c>
-      <c r="L242" s="8">
+      <c r="L242" s="6">
         <v>83490</v>
       </c>
       <c r="M242">
@@ -12575,7 +12572,7 @@
         <f t="shared" si="3"/>
         <v>1280</v>
       </c>
-      <c r="F243" s="6">
+      <c r="F243" s="5">
         <v>1150</v>
       </c>
       <c r="G243">
@@ -12593,7 +12590,7 @@
       <c r="K243" s="1">
         <v>27637</v>
       </c>
-      <c r="L243" s="8">
+      <c r="L243" s="6">
         <v>70459</v>
       </c>
       <c r="M243">
@@ -12623,7 +12620,7 @@
         <f t="shared" si="3"/>
         <v>1904</v>
       </c>
-      <c r="F244" s="6">
+      <c r="F244" s="5">
         <v>1690</v>
       </c>
       <c r="G244">
@@ -12641,7 +12638,7 @@
       <c r="K244" s="1">
         <v>46449</v>
       </c>
-      <c r="L244" s="8">
+      <c r="L244" s="6">
         <v>105712</v>
       </c>
       <c r="M244">
@@ -12662,7 +12659,7 @@
         <v>91766</v>
       </c>
       <c r="B245" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C245" t="s">
         <v>49</v>
@@ -12671,7 +12668,7 @@
         <f t="shared" si="3"/>
         <v>1166</v>
       </c>
-      <c r="F245" s="6">
+      <c r="F245" s="5">
         <v>1010</v>
       </c>
       <c r="G245">
@@ -12689,7 +12686,7 @@
       <c r="K245" s="1">
         <v>70701</v>
       </c>
-      <c r="L245" s="8">
+      <c r="L245" s="6">
         <v>72692</v>
       </c>
       <c r="M245">
@@ -12719,7 +12716,7 @@
         <f t="shared" si="3"/>
         <v>1188</v>
       </c>
-      <c r="F246" s="6">
+      <c r="F246" s="5">
         <v>1030</v>
       </c>
       <c r="G246">
@@ -12737,7 +12734,7 @@
       <c r="K246" s="1">
         <v>51654</v>
       </c>
-      <c r="L246" s="8">
+      <c r="L246" s="6">
         <v>75870</v>
       </c>
       <c r="M246">
@@ -12767,7 +12764,7 @@
         <f t="shared" si="3"/>
         <v>1162</v>
       </c>
-      <c r="F247" s="6">
+      <c r="F247" s="5">
         <v>1000</v>
       </c>
       <c r="G247">
@@ -12785,7 +12782,7 @@
       <c r="K247" s="1">
         <v>35568</v>
       </c>
-      <c r="L247" s="8">
+      <c r="L247" s="6">
         <v>71462</v>
       </c>
       <c r="M247">
@@ -12815,7 +12812,7 @@
         <f t="shared" si="3"/>
         <v>1204</v>
       </c>
-      <c r="F248" s="6">
+      <c r="F248" s="5">
         <v>1030</v>
       </c>
       <c r="G248">
@@ -12833,7 +12830,7 @@
       <c r="K248" s="1">
         <v>59360</v>
       </c>
-      <c r="L248" s="8">
+      <c r="L248" s="6">
         <v>70863</v>
       </c>
       <c r="M248">
@@ -12863,7 +12860,7 @@
         <f t="shared" si="3"/>
         <v>1680</v>
       </c>
-      <c r="F249" s="6">
+      <c r="F249" s="5">
         <v>1460</v>
       </c>
       <c r="G249">
@@ -12881,7 +12878,7 @@
       <c r="K249" s="1">
         <v>34592</v>
       </c>
-      <c r="L249" s="8">
+      <c r="L249" s="6">
         <v>101466</v>
       </c>
       <c r="M249">
@@ -12911,7 +12908,7 @@
         <f t="shared" si="3"/>
         <v>1432</v>
       </c>
-      <c r="F250" s="6">
+      <c r="F250" s="5">
         <v>1180</v>
       </c>
       <c r="G250">
@@ -12929,7 +12926,7 @@
       <c r="K250" s="1">
         <v>24252</v>
       </c>
-      <c r="L250" s="8">
+      <c r="L250" s="6">
         <v>107359</v>
       </c>
       <c r="M250">
@@ -12959,7 +12956,7 @@
         <f t="shared" si="3"/>
         <v>1322</v>
       </c>
-      <c r="F251" s="6">
+      <c r="F251" s="5">
         <v>1170</v>
       </c>
       <c r="G251">
@@ -12977,7 +12974,7 @@
       <c r="K251" s="1">
         <v>38031</v>
       </c>
-      <c r="L251" s="8">
+      <c r="L251" s="6">
         <v>77147</v>
       </c>
       <c r="M251">
@@ -13007,7 +13004,7 @@
         <f t="shared" si="3"/>
         <v>1368</v>
       </c>
-      <c r="F252" s="6">
+      <c r="F252" s="5">
         <v>1150</v>
       </c>
       <c r="G252">
@@ -13025,7 +13022,7 @@
       <c r="K252" s="1">
         <v>35751</v>
       </c>
-      <c r="L252" s="8">
+      <c r="L252" s="6">
         <v>94946</v>
       </c>
       <c r="M252">
@@ -13051,12 +13048,12 @@
       <c r="C253" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D253" s="3"/>
+      <c r="D253" s="1"/>
       <c r="E253">
         <f t="shared" si="3"/>
         <v>2018</v>
       </c>
-      <c r="F253" s="6">
+      <c r="F253" s="5">
         <v>1740</v>
       </c>
       <c r="G253">
@@ -13074,7 +13071,7 @@
       <c r="K253" s="1">
         <v>41235</v>
       </c>
-      <c r="L253" s="8">
+      <c r="L253" s="6">
         <v>123555</v>
       </c>
       <c r="M253">
@@ -13104,7 +13101,7 @@
         <f t="shared" si="3"/>
         <v>1472</v>
       </c>
-      <c r="F254" s="6">
+      <c r="F254" s="5">
         <v>1270</v>
       </c>
       <c r="G254">
@@ -13122,7 +13119,7 @@
       <c r="K254" s="1">
         <v>46364</v>
       </c>
-      <c r="L254" s="8">
+      <c r="L254" s="6">
         <v>97868</v>
       </c>
       <c r="M254">
@@ -13152,7 +13149,7 @@
         <f t="shared" si="3"/>
         <v>1436</v>
       </c>
-      <c r="F255" s="6">
+      <c r="F255" s="5">
         <v>1210</v>
       </c>
       <c r="G255">
@@ -13170,7 +13167,7 @@
       <c r="K255" s="1">
         <v>34267</v>
       </c>
-      <c r="L255" s="8">
+      <c r="L255" s="6">
         <v>96470</v>
       </c>
       <c r="M255">
@@ -13200,7 +13197,7 @@
         <f t="shared" si="3"/>
         <v>1494</v>
       </c>
-      <c r="F256" s="6">
+      <c r="F256" s="5">
         <v>1270</v>
       </c>
       <c r="G256">
@@ -13218,7 +13215,7 @@
       <c r="K256" s="1">
         <v>30683</v>
       </c>
-      <c r="L256" s="8">
+      <c r="L256" s="6">
         <v>94439</v>
       </c>
       <c r="M256">
@@ -13248,7 +13245,7 @@
         <f t="shared" si="3"/>
         <v>1334</v>
       </c>
-      <c r="F257" s="6">
+      <c r="F257" s="5">
         <v>1170</v>
       </c>
       <c r="G257">
@@ -13266,7 +13263,7 @@
       <c r="K257" s="1">
         <v>53669</v>
       </c>
-      <c r="L257" s="8">
+      <c r="L257" s="6">
         <v>81580</v>
       </c>
       <c r="M257">
@@ -13296,7 +13293,7 @@
         <f t="shared" si="3"/>
         <v>1278</v>
       </c>
-      <c r="F258" s="6">
+      <c r="F258" s="5">
         <v>1110</v>
       </c>
       <c r="G258">
@@ -13314,7 +13311,7 @@
       <c r="K258" s="1">
         <v>29374</v>
       </c>
-      <c r="L258" s="8">
+      <c r="L258" s="6">
         <v>76694</v>
       </c>
       <c r="M258">
@@ -13344,7 +13341,7 @@
         <f t="shared" ref="E259:E266" si="4">AVERAGE(F259:J259)</f>
         <v>1622</v>
       </c>
-      <c r="F259" s="6">
+      <c r="F259" s="5">
         <v>1610</v>
       </c>
       <c r="G259">
@@ -13362,7 +13359,7 @@
       <c r="K259" s="1">
         <v>7591</v>
       </c>
-      <c r="L259" s="8">
+      <c r="L259" s="6">
         <v>123438</v>
       </c>
       <c r="M259">
@@ -13395,7 +13392,7 @@
         <f t="shared" si="4"/>
         <v>1134</v>
       </c>
-      <c r="F260" s="6">
+      <c r="F260" s="5">
         <v>970</v>
       </c>
       <c r="G260">
@@ -13413,7 +13410,7 @@
       <c r="K260" s="1">
         <v>43906</v>
       </c>
-      <c r="L260" s="8">
+      <c r="L260" s="6">
         <v>55945</v>
       </c>
       <c r="M260">
@@ -13434,17 +13431,17 @@
         <v>93535</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D261" s="3"/>
       <c r="E261">
         <f t="shared" si="4"/>
         <v>1134</v>
       </c>
-      <c r="F261" s="6">
+      <c r="F261" s="5">
         <v>970</v>
       </c>
       <c r="G261">
@@ -13462,7 +13459,7 @@
       <c r="K261" s="1">
         <v>82149</v>
       </c>
-      <c r="L261" s="8">
+      <c r="L261" s="6">
         <v>61183</v>
       </c>
       <c r="M261">
@@ -13490,7 +13487,7 @@
         <f t="shared" si="4"/>
         <v>1134</v>
       </c>
-      <c r="F262" s="6">
+      <c r="F262" s="5">
         <v>970</v>
       </c>
       <c r="G262">
@@ -13508,7 +13505,7 @@
       <c r="K262" s="1">
         <v>74283</v>
       </c>
-      <c r="L262" s="8">
+      <c r="L262" s="6">
         <v>97418</v>
       </c>
       <c r="M262">
@@ -13529,17 +13526,17 @@
         <v>93543</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D263" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="D263" s="1"/>
       <c r="E263">
         <f t="shared" si="4"/>
         <v>1314</v>
       </c>
-      <c r="F263" s="6">
+      <c r="F263" s="5">
         <v>1270</v>
       </c>
       <c r="G263">
@@ -13557,7 +13554,7 @@
       <c r="K263" s="1">
         <v>14132</v>
       </c>
-      <c r="L263" s="8">
+      <c r="L263" s="6">
         <v>69727</v>
       </c>
       <c r="M263">
@@ -13585,7 +13582,7 @@
         <f t="shared" si="4"/>
         <v>1134</v>
       </c>
-      <c r="F264" s="6">
+      <c r="F264" s="5">
         <v>970</v>
       </c>
       <c r="G264">
@@ -13603,7 +13600,7 @@
       <c r="K264" s="1">
         <v>82379</v>
       </c>
-      <c r="L264" s="8">
+      <c r="L264" s="6">
         <v>61394</v>
       </c>
       <c r="M264">
@@ -13634,7 +13631,7 @@
         <f t="shared" si="4"/>
         <v>1640</v>
       </c>
-      <c r="F265" s="6">
+      <c r="F265" s="5">
         <v>1470</v>
       </c>
       <c r="G265">
@@ -13652,7 +13649,7 @@
       <c r="K265" s="1">
         <v>56001</v>
       </c>
-      <c r="L265" s="8">
+      <c r="L265" s="6">
         <v>107133</v>
       </c>
       <c r="M265">
@@ -13682,7 +13679,7 @@
         <f t="shared" si="4"/>
         <v>1542</v>
       </c>
-      <c r="F266" s="6">
+      <c r="F266" s="5">
         <v>1360</v>
       </c>
       <c r="G266">
@@ -13700,7 +13697,7 @@
       <c r="K266" s="1">
         <v>42468</v>
       </c>
-      <c r="L266" s="8">
+      <c r="L266" s="6">
         <v>85890</v>
       </c>
       <c r="M266">
@@ -13721,7 +13718,7 @@
         <v>93591</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>58</v>
@@ -13731,7 +13728,7 @@
         <f>AVERAGE(F267:J267)</f>
         <v>1160</v>
       </c>
-      <c r="F267" s="6">
+      <c r="F267" s="5">
         <v>1020</v>
       </c>
       <c r="G267">
@@ -13749,7 +13746,7 @@
       <c r="K267" s="2">
         <v>7450</v>
       </c>
-      <c r="L267" s="9">
+      <c r="L267" s="7">
         <v>57826</v>
       </c>
       <c r="M267">
